--- a/benchmark_qpso.xlsx
+++ b/benchmark_qpso.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9.417255867540893e-5</v>
+        <v>0.00019347907560446185</v>
       </c>
       <c r="B2">
         <v>53454</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>7.528017728521033e-5</v>
+        <v>0.0023690243371551544</v>
       </c>
       <c r="B3">
         <v>53454</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0004990300639566466</v>
+        <v>0.0006678717863604699</v>
       </c>
       <c r="B4">
         <v>53454</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.00045860901761142286</v>
+        <v>0.0005294145941012861</v>
       </c>
       <c r="B5">
         <v>53454</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6.164362930839887e-5</v>
+        <v>0.0001151004196973454</v>
       </c>
       <c r="B6">
         <v>53454</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0003432386569728503</v>
+        <v>0.0008263785438948098</v>
       </c>
       <c r="B7">
         <v>53454</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0011770959723586725</v>
+        <v>0.0001462745355290666</v>
       </c>
       <c r="B8">
         <v>53454</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0003030536763185445</v>
+        <v>0.00029451440474824757</v>
       </c>
       <c r="B9">
         <v>53454</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.0003235154474770969</v>
+        <v>0.00017100848206006287</v>
       </c>
       <c r="B10">
         <v>53454</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.00011211054731794347</v>
+        <v>0.0003250990537299053</v>
       </c>
       <c r="B11">
         <v>53454</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.000985309672294354</v>
+        <v>3.8243820533043596e-5</v>
       </c>
       <c r="B12">
         <v>53454</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.0003091745588120741</v>
+        <v>0.0017002354293287883</v>
       </c>
       <c r="B13">
         <v>53454</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.0005647369665612267</v>
+        <v>0.00018757225426187132</v>
       </c>
       <c r="B14">
         <v>53454</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0007650580135550918</v>
+        <v>0.0006130831045344997</v>
       </c>
       <c r="B15">
         <v>53454</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0002577857925707306</v>
+        <v>0.0007139630941986006</v>
       </c>
       <c r="B16">
         <v>53454</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.00011487115124649239</v>
+        <v>0.00039050728246752545</v>
       </c>
       <c r="B17">
         <v>53454</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.000757223778937747</v>
+        <v>0.0005897982493412834</v>
       </c>
       <c r="B18">
         <v>53454</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0018490957354414274</v>
+        <v>0.0001739262118147144</v>
       </c>
       <c r="B19">
         <v>53454</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0004460072166707158</v>
+        <v>0.0001278240921266614</v>
       </c>
       <c r="B20">
         <v>53454</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3.859651990976044e-5</v>
+        <v>3.442497280582104e-5</v>
       </c>
       <c r="B21">
         <v>53454</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>8.366115686976125e-5</v>
+        <v>4.876677415546899e-5</v>
       </c>
       <c r="B22">
         <v>53454</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.0026372502446329934</v>
+        <v>0.0004925877579250597</v>
       </c>
       <c r="B23">
         <v>53454</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>9.991809434046628e-5</v>
+        <v>6.241218535742164e-5</v>
       </c>
       <c r="B24">
         <v>53454</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.8891774630069885e-5</v>
+        <v>0.00016497942354425928</v>
       </c>
       <c r="B25">
         <v>53454</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>5.390911618228474e-5</v>
+        <v>0.0001224971444281177</v>
       </c>
       <c r="B26">
         <v>53454</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.5939542752097742e-5</v>
+        <v>0.0005129814107819423</v>
       </c>
       <c r="B27">
         <v>53454</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.00032788754580046755</v>
+        <v>0.0003278990186348075</v>
       </c>
       <c r="B28">
         <v>53454</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.00036202502765902793</v>
+        <v>0.0034372601620478904</v>
       </c>
       <c r="B29">
         <v>53454</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.0004886376307861784</v>
+        <v>0.0006865353183269171</v>
       </c>
       <c r="B30">
         <v>53454</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0001398540804768242</v>
+        <v>0.0016970807852086495</v>
       </c>
       <c r="B31">
         <v>53454</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.00033576094008135103</v>
+        <v>4.8554667801795914e-5</v>
       </c>
       <c r="B32">
         <v>53454</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.00016385497104362356</v>
+        <v>0.002842331654151472</v>
       </c>
       <c r="B33">
         <v>53454</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.030891758256018125</v>
+        <v>0.00039840794870734243</v>
       </c>
       <c r="B34">
         <v>53454</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>6.868988972991101e-5</v>
+        <v>0.00037990069810507843</v>
       </c>
       <c r="B35">
         <v>53454</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.0005687032725961528</v>
+        <v>0.0003496707692035532</v>
       </c>
       <c r="B36">
         <v>53454</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.0005556757469475555</v>
+        <v>0.00020658209982260745</v>
       </c>
       <c r="B37">
         <v>53454</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.0014002541124926756</v>
+        <v>0.00020324334952754084</v>
       </c>
       <c r="B38">
         <v>53454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.0002957662308856741</v>
+        <v>0.0007666007607076747</v>
       </c>
       <c r="B39">
         <v>53454</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.0005177052799701998</v>
+        <v>0.0005746915471530889</v>
       </c>
       <c r="B40">
         <v>53454</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0019231451895890062</v>
+        <v>0.00031331418131829336</v>
       </c>
       <c r="B41">
         <v>53454</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.00010461171929130988</v>
+        <v>4.5647697458580546e-5</v>
       </c>
       <c r="B42">
         <v>53454</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>6.0092049637141e-6</v>
+        <v>0.0008061424090647221</v>
       </c>
       <c r="B43">
         <v>53454</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.0006865602776772431</v>
+        <v>0.0002437669852066324</v>
       </c>
       <c r="B44">
         <v>53454</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.00031025613309168304</v>
+        <v>0.0005580650094901482</v>
       </c>
       <c r="B45">
         <v>53454</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.0007571487663162263</v>
+        <v>7.195458719040419e-5</v>
       </c>
       <c r="B46">
         <v>53454</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>6.564189212700674e-5</v>
+        <v>0.0001893238649852749</v>
       </c>
       <c r="B47">
         <v>53454</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2.3111735128448586e-5</v>
+        <v>5.545025099632271e-5</v>
       </c>
       <c r="B48">
         <v>53454</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7.476675978363963e-5</v>
+        <v>0.0010054745461416498</v>
       </c>
       <c r="B49">
         <v>53454</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.0008605850655906711</v>
+        <v>4.1021335156291845e-5</v>
       </c>
       <c r="B50">
         <v>53454</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.00034303971473645585</v>
+        <v>0.0016642501230500865</v>
       </c>
       <c r="B51">
         <v>53454</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.0003931081411005979</v>
+        <v>6.151965643946949e-5</v>
       </c>
       <c r="B52">
         <v>53454</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3.533432077942358e-5</v>
+        <v>0.0003485873035197613</v>
       </c>
       <c r="B53">
         <v>53454</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4.289420280539428e-5</v>
+        <v>0.00021050087278742165</v>
       </c>
       <c r="B54">
         <v>53454</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>7.490183020498364e-5</v>
+        <v>0.00032128006686968396</v>
       </c>
       <c r="B55">
         <v>53454</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2.9184524711576032e-5</v>
+        <v>0.00012896397799647689</v>
       </c>
       <c r="B56">
         <v>53454</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.00022535868833840482</v>
+        <v>0.00028661926368291144</v>
       </c>
       <c r="B57">
         <v>53454</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.0017087486910003185</v>
+        <v>0.0001441843008032874</v>
       </c>
       <c r="B58">
         <v>53454</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.0001409933732792444</v>
+        <v>0.0003568505066420743</v>
       </c>
       <c r="B59">
         <v>53454</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.00017462642040625854</v>
+        <v>0.00045979857522764533</v>
       </c>
       <c r="B60">
         <v>53454</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.000527186060841399</v>
+        <v>0.0008012842048587843</v>
       </c>
       <c r="B61">
         <v>53454</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.00018734885265645352</v>
+        <v>0.0009098065162632244</v>
       </c>
       <c r="B62">
         <v>53454</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3.478826581326908e-5</v>
+        <v>5.0402297057556575e-5</v>
       </c>
       <c r="B63">
         <v>53454</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>8.671443413905288e-5</v>
+        <v>0.00015892968753798112</v>
       </c>
       <c r="B64">
         <v>53454</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.003481734145133313</v>
+        <v>0.00042851788798338084</v>
       </c>
       <c r="B65">
         <v>53454</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.00040242841122108835</v>
+        <v>0.00019468980216488026</v>
       </c>
       <c r="B66">
         <v>53454</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>4.712872030746125e-5</v>
+        <v>0.0006618372869322188</v>
       </c>
       <c r="B67">
         <v>53454</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.0010590806882662892</v>
+        <v>0.0034903686208922805</v>
       </c>
       <c r="B68">
         <v>53454</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.0004239972229463405</v>
+        <v>0.0004183790138684718</v>
       </c>
       <c r="B69">
         <v>53454</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.0003641443614316601</v>
+        <v>4.425523401058621e-5</v>
       </c>
       <c r="B70">
         <v>53454</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.0002797245683222951</v>
+        <v>7.931974316761583e-5</v>
       </c>
       <c r="B71">
         <v>53454</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.00020126147076288323</v>
+        <v>0.002993845875726241</v>
       </c>
       <c r="B72">
         <v>53454</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.0002004406263050885</v>
+        <v>0.0008607744699128935</v>
       </c>
       <c r="B73">
         <v>53454</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.0016897988359862543</v>
+        <v>0.0007600109896306124</v>
       </c>
       <c r="B74">
         <v>53454</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0011865855544586955</v>
+        <v>0.00041936717558202464</v>
       </c>
       <c r="B75">
         <v>53454</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.0004119900367312201</v>
+        <v>0.0006365479146119538</v>
       </c>
       <c r="B76">
         <v>53454</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.00017829364692774864</v>
+        <v>0.0003076729057108512</v>
       </c>
       <c r="B77">
         <v>53454</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.0005153383301001978</v>
+        <v>0.00020465436244154498</v>
       </c>
       <c r="B78">
         <v>53454</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>7.863361365765744e-5</v>
+        <v>0.0012038890062372565</v>
       </c>
       <c r="B79">
         <v>53454</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.0004861781488420551</v>
+        <v>0.00017340729349759059</v>
       </c>
       <c r="B80">
         <v>53454</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.0004039986973761975</v>
+        <v>0.001140886041455712</v>
       </c>
       <c r="B81">
         <v>53454</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.0001462258382280142</v>
+        <v>0.0003333108962398811</v>
       </c>
       <c r="B82">
         <v>53454</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.000746862769610772</v>
+        <v>0.0003258281043454296</v>
       </c>
       <c r="B83">
         <v>53454</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>9.976820647057636e-5</v>
+        <v>0.0009441588227047683</v>
       </c>
       <c r="B84">
         <v>53454</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.00016090764530046997</v>
+        <v>0.0007647775213741259</v>
       </c>
       <c r="B85">
         <v>53454</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>7.393551482782947e-5</v>
+        <v>4.1514990679140945e-5</v>
       </c>
       <c r="B86">
         <v>53454</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.00034709532160953356</v>
+        <v>0.0017847533157691778</v>
       </c>
       <c r="B87">
         <v>53454</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.001418729026498353</v>
+        <v>0.0007110610842405433</v>
       </c>
       <c r="B88">
         <v>53454</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.00021932409064793687</v>
+        <v>7.578936487101734e-5</v>
       </c>
       <c r="B89">
         <v>53454</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.00010831373162218419</v>
+        <v>0.000420228174157938</v>
       </c>
       <c r="B90">
         <v>53454</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.001965117291419266</v>
+        <v>0.0001939850921903824</v>
       </c>
       <c r="B91">
         <v>53454</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8.538494740702242e-5</v>
+        <v>0.0004003583915150879</v>
       </c>
       <c r="B92">
         <v>53454</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.0003538628911794416</v>
+        <v>0.00031910228911124307</v>
       </c>
       <c r="B93">
         <v>53454</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.00017766949064120858</v>
+        <v>0.00015467742798444298</v>
       </c>
       <c r="B94">
         <v>53454</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.0004980458735030127</v>
+        <v>0.0001410356998602677</v>
       </c>
       <c r="B95">
         <v>53454</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3.238468235725236e-5</v>
+        <v>0.00026103792924629156</v>
       </c>
       <c r="B96">
         <v>53454</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.0016848769363019792</v>
+        <v>0.00025442329353040895</v>
       </c>
       <c r="B97">
         <v>53454</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.00032798202714782196</v>
+        <v>6.775524415177079e-5</v>
       </c>
       <c r="B98">
         <v>53454</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.00014337201968089424</v>
+        <v>0.00025386775032594684</v>
       </c>
       <c r="B99">
         <v>53454</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.0009506394039333976</v>
+        <v>2.8959834422780046e-5</v>
       </c>
       <c r="B100">
         <v>53454</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.0005898332264869274</v>
+        <v>0.0017420510134923464</v>
       </c>
       <c r="B101">
         <v>53454</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>56.5468761997663</v>
+        <v>113.09375239252495</v>
       </c>
       <c r="B2">
         <v>196415</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>155.50390953337228</v>
+        <v>84.8203143881808</v>
       </c>
       <c r="B3">
         <v>196415</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>84.82031429550761</v>
+        <v>98.95704181939254</v>
       </c>
       <c r="B4">
         <v>196415</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>98.95703434930942</v>
+        <v>127.23047146203498</v>
       </c>
       <c r="B5">
         <v>196415</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>141.36719049002795</v>
+        <v>155.50552396255034</v>
       </c>
       <c r="B6">
         <v>196415</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>113.09375275663206</v>
+        <v>226.18751320736965</v>
       </c>
       <c r="B7">
         <v>196415</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>98.95703335009102</v>
+        <v>113.09388836167363</v>
       </c>
       <c r="B8">
         <v>196415</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>127.23047144491511</v>
+        <v>98.95703341382091</v>
       </c>
       <c r="B9">
         <v>196415</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>155.50390953337956</v>
+        <v>141.36719174761674</v>
       </c>
       <c r="B10">
         <v>196415</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>113.09401587830598</v>
+        <v>141.36719049718613</v>
       </c>
       <c r="B11">
         <v>196415</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>70.68359847582133</v>
+        <v>98.95704844220245</v>
       </c>
       <c r="B12">
         <v>196415</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>113.09375293410335</v>
+        <v>98.95703927757472</v>
       </c>
       <c r="B13">
         <v>196415</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>169.64062861953062</v>
+        <v>127.23047143776012</v>
       </c>
       <c r="B14">
         <v>196415</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>155.50391797881116</v>
+        <v>141.36719050657211</v>
       </c>
       <c r="B15">
         <v>196415</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>113.09375555563292</v>
+        <v>169.64063398060762</v>
       </c>
       <c r="B16">
         <v>196415</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>113.09375239905194</v>
+        <v>127.2304714820109</v>
       </c>
       <c r="B17">
         <v>196415</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>197.9141043550169</v>
+        <v>169.64064728359335</v>
       </c>
       <c r="B18">
         <v>196415</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>98.95710221512309</v>
+        <v>226.18750524207326</v>
       </c>
       <c r="B19">
         <v>196415</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>113.09429390406058</v>
+        <v>155.5039095335178</v>
       </c>
       <c r="B20">
         <v>196415</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>56.54687619406013</v>
+        <v>169.6406291629628</v>
       </c>
       <c r="B21">
         <v>196415</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>113.09375296239114</v>
+        <v>98.9570353924953</v>
       </c>
       <c r="B22">
         <v>196415</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>169.6406672532221</v>
+        <v>155.50390953337546</v>
       </c>
       <c r="B23">
         <v>196415</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>56.54700569599822</v>
+        <v>113.09375239221845</v>
       </c>
       <c r="B24">
         <v>196415</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>56.54687693151163</v>
+        <v>98.95703334778523</v>
       </c>
       <c r="B25">
         <v>196415</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>127.23047310734523</v>
+        <v>113.09375305024832</v>
       </c>
       <c r="B26">
         <v>196415</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>155.50390967794738</v>
+        <v>127.23047146497856</v>
       </c>
       <c r="B27">
         <v>196415</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>113.09375301707678</v>
+        <v>183.77734764930528</v>
       </c>
       <c r="B28">
         <v>196415</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>141.367191424642</v>
+        <v>141.36719048819873</v>
       </c>
       <c r="B29">
         <v>196415</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>169.64076385840053</v>
+        <v>127.23047143790563</v>
       </c>
       <c r="B30">
         <v>196415</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>70.68359529680674</v>
+        <v>155.5039096296789</v>
       </c>
       <c r="B31">
         <v>196415</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>98.95703900003923</v>
+        <v>113.0937670094188</v>
       </c>
       <c r="B32">
         <v>196415</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>113.09375289177342</v>
+        <v>127.23060785819212</v>
       </c>
       <c r="B33">
         <v>196415</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>169.64062865130927</v>
+        <v>127.23047306122089</v>
       </c>
       <c r="B34">
         <v>196415</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>84.82031431007863</v>
+        <v>113.0937523975756</v>
       </c>
       <c r="B35">
         <v>196415</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>169.64062858190573</v>
+        <v>70.68360632052872</v>
       </c>
       <c r="B36">
         <v>196415</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>169.64072583128836</v>
+        <v>197.91406698792662</v>
       </c>
       <c r="B37">
         <v>196415</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>197.91406669457183</v>
+        <v>141.36719132237408</v>
       </c>
       <c r="B38">
         <v>196415</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>169.64063081243967</v>
+        <v>14.136719132639428</v>
       </c>
       <c r="B39">
         <v>196415</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>98.95703348331153</v>
+        <v>70.68363625594839</v>
       </c>
       <c r="B40">
         <v>196415</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>98.95703371061427</v>
+        <v>169.7501766805358</v>
       </c>
       <c r="B41">
         <v>196415</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>127.2304715620021</v>
+        <v>113.09375246639456</v>
       </c>
       <c r="B42">
         <v>196415</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>113.093807529262</v>
+        <v>113.09375307373784</v>
       </c>
       <c r="B43">
         <v>196415</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>141.3671904872774</v>
+        <v>42.41015734809548</v>
       </c>
       <c r="B44">
         <v>196415</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>141.36719055840467</v>
+        <v>141.3671905752035</v>
       </c>
       <c r="B45">
         <v>196415</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>141.36719060757514</v>
+        <v>84.82031483079368</v>
       </c>
       <c r="B46">
         <v>196415</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>113.09375664742447</v>
+        <v>113.09375409093809</v>
       </c>
       <c r="B47">
         <v>196415</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>127.23047144377188</v>
+        <v>141.36719049492626</v>
       </c>
       <c r="B48">
         <v>196415</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>169.64062858550733</v>
+        <v>183.77734804245347</v>
       </c>
       <c r="B49">
         <v>196415</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>70.68359874357839</v>
+        <v>98.95703333961819</v>
       </c>
       <c r="B50">
         <v>196415</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>113.09376922989213</v>
+        <v>141.36719478507007</v>
       </c>
       <c r="B51">
         <v>196415</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>127.23047143671329</v>
+        <v>113.09375337686697</v>
       </c>
       <c r="B52">
         <v>196415</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>98.95703373131664</v>
+        <v>98.9570397584398</v>
       </c>
       <c r="B53">
         <v>196415</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>155.50391905173774</v>
+        <v>98.95703342562342</v>
       </c>
       <c r="B54">
         <v>196415</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>155.50391074393474</v>
+        <v>169.64062858741772</v>
       </c>
       <c r="B55">
         <v>196415</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>56.54687623844143</v>
+        <v>268.59767573282807</v>
       </c>
       <c r="B56">
         <v>196415</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>70.6835952805327</v>
+        <v>169.64062864106927</v>
       </c>
       <c r="B57">
         <v>196415</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>98.95703334144036</v>
+        <v>141.36719474799202</v>
       </c>
       <c r="B58">
         <v>196415</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>56.5468762554292</v>
+        <v>169.64062858586203</v>
       </c>
       <c r="B59">
         <v>196415</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>84.82031435174258</v>
+        <v>98.95703461948119</v>
       </c>
       <c r="B60">
         <v>196415</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>98.95703373132937</v>
+        <v>127.23047143696249</v>
       </c>
       <c r="B61">
         <v>196415</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>70.68367968482153</v>
+        <v>155.50465967926402</v>
       </c>
       <c r="B62">
         <v>196415</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>84.82031429097515</v>
+        <v>212.05078572951697</v>
       </c>
       <c r="B63">
         <v>196415</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>113.09375270554392</v>
+        <v>155.50390964044436</v>
       </c>
       <c r="B64">
         <v>196415</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>141.36719078382112</v>
+        <v>197.9140667789327</v>
       </c>
       <c r="B65">
         <v>196415</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>127.23047213567452</v>
+        <v>98.95703346190248</v>
       </c>
       <c r="B66">
         <v>196415</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>84.82032157384492</v>
+        <v>70.6835955202755</v>
       </c>
       <c r="B67">
         <v>196415</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>155.5039095981233</v>
+        <v>127.23047716982273</v>
       </c>
       <c r="B68">
         <v>196415</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>183.77734764227603</v>
+        <v>127.23047144145585</v>
       </c>
       <c r="B69">
         <v>196415</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>127.23047198094446</v>
+        <v>127.23047162133253</v>
       </c>
       <c r="B70">
         <v>196415</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>113.09376187929138</v>
+        <v>169.6406285850744</v>
       </c>
       <c r="B71">
         <v>196415</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>169.64062874262254</v>
+        <v>113.09377417445194</v>
       </c>
       <c r="B72">
         <v>196415</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>169.64072256802092</v>
+        <v>155.50390990517008</v>
       </c>
       <c r="B73">
         <v>196415</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>127.23047181993161</v>
+        <v>84.82031437771002</v>
       </c>
       <c r="B74">
         <v>196415</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>113.09375260849129</v>
+        <v>56.54688808633273</v>
       </c>
       <c r="B75">
         <v>196415</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>84.82034691875492</v>
+        <v>183.777603364764</v>
       </c>
       <c r="B76">
         <v>196415</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>240.32422382452842</v>
+        <v>113.09375658632098</v>
       </c>
       <c r="B77">
         <v>196415</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>197.91408532667265</v>
+        <v>141.36719356367485</v>
       </c>
       <c r="B78">
         <v>196415</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>155.50390975764003</v>
+        <v>183.777347738554</v>
       </c>
       <c r="B79">
         <v>196415</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>169.64062859306546</v>
+        <v>84.82031429440758</v>
       </c>
       <c r="B80">
         <v>196415</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>127.23047292045908</v>
+        <v>141.37034670116827</v>
       </c>
       <c r="B81">
         <v>196415</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>113.09375334334163</v>
+        <v>141.3671929887464</v>
       </c>
       <c r="B82">
         <v>196415</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>127.23047143673921</v>
+        <v>127.2304714380798</v>
       </c>
       <c r="B83">
         <v>196415</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>98.957033365916</v>
+        <v>127.23047173203577</v>
       </c>
       <c r="B84">
         <v>196415</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>98.95703336409224</v>
+        <v>113.09375907349522</v>
       </c>
       <c r="B85">
         <v>196415</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>127.23048718498922</v>
+        <v>127.2304797015388</v>
       </c>
       <c r="B86">
         <v>196415</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>113.093764667394</v>
+        <v>141.36719049357407</v>
       </c>
       <c r="B87">
         <v>196415</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>98.97625925136163</v>
+        <v>98.95703505641904</v>
       </c>
       <c r="B88">
         <v>196415</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>70.68359535051013</v>
+        <v>113.09375241786506</v>
       </c>
       <c r="B89">
         <v>196415</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>127.23047145778037</v>
+        <v>155.50390956455885</v>
       </c>
       <c r="B90">
         <v>196415</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>169.64062900412387</v>
+        <v>84.82035509916022</v>
       </c>
       <c r="B91">
         <v>196415</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>197.91407652376915</v>
+        <v>127.24140522043899</v>
       </c>
       <c r="B92">
         <v>196415</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>197.91406979933163</v>
+        <v>155.50390956105002</v>
       </c>
       <c r="B93">
         <v>196415</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>169.64062934939534</v>
+        <v>113.09375240347981</v>
       </c>
       <c r="B94">
         <v>196415</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>127.23047143647022</v>
+        <v>155.5039459221698</v>
       </c>
       <c r="B95">
         <v>196415</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>84.8203144285585</v>
+        <v>84.8203154489604</v>
       </c>
       <c r="B96">
         <v>196415</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>127.23067997497219</v>
+        <v>141.36719127006222</v>
       </c>
       <c r="B97">
         <v>196415</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>155.50390953580722</v>
+        <v>127.2307257539992</v>
       </c>
       <c r="B98">
         <v>196415</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>169.64063003860383</v>
+        <v>141.36719120266434</v>
       </c>
       <c r="B99">
         <v>196415</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>113.09375240929967</v>
+        <v>113.09375239615679</v>
       </c>
       <c r="B100">
         <v>196415</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>84.82031432022814</v>
+        <v>113.09375287604098</v>
       </c>
       <c r="B101">
         <v>196415</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.0007359872832017316</v>
+        <v>0.0002121130826357395</v>
       </c>
       <c r="B2">
         <v>53407</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0002097585258247835</v>
+        <v>0.0002197694916242206</v>
       </c>
       <c r="B3">
         <v>53407</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0004479533217610401</v>
+        <v>0.0002928961457246939</v>
       </c>
       <c r="B4">
         <v>53407</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.0013731682721223025</v>
+        <v>0.003100039813687393</v>
       </c>
       <c r="B5">
         <v>53407</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0005392437415894069</v>
+        <v>0.0007224251400074473</v>
       </c>
       <c r="B6">
         <v>53407</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0002602285701026996</v>
+        <v>0.0008845792467650789</v>
       </c>
       <c r="B7">
         <v>53407</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.00014766067460097044</v>
+        <v>0.00010260498267595735</v>
       </c>
       <c r="B8">
         <v>53407</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0037522328653992187</v>
+        <v>0.0002333360273275443</v>
       </c>
       <c r="B9">
         <v>53407</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.00034061268025381737</v>
+        <v>0.0012798672413361087</v>
       </c>
       <c r="B10">
         <v>53407</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.00042351787399926027</v>
+        <v>0.00048379080056842763</v>
       </c>
       <c r="B11">
         <v>53407</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.00010376847105708837</v>
+        <v>6.32853918596004e-5</v>
       </c>
       <c r="B12">
         <v>53407</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.00031162720973356627</v>
+        <v>0.00027648566556213674</v>
       </c>
       <c r="B13">
         <v>53407</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.000235410714992098</v>
+        <v>0.0001636255408111181</v>
       </c>
       <c r="B14">
         <v>53407</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0005384909391845034</v>
+        <v>0.0004045206184391397</v>
       </c>
       <c r="B15">
         <v>53407</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7.743901676965786e-5</v>
+        <v>0.000332217289753419</v>
       </c>
       <c r="B16">
         <v>53407</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.0002688194773618702</v>
+        <v>9.95390282033083e-6</v>
       </c>
       <c r="B17">
         <v>53407</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>9.948277171342956e-5</v>
+        <v>0.0001280208390116787</v>
       </c>
       <c r="B18">
         <v>53407</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0018232695062710413</v>
+        <v>0.0007792218691978263</v>
       </c>
       <c r="B19">
         <v>53407</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.000949967281478298</v>
+        <v>0.00038379763271918446</v>
       </c>
       <c r="B20">
         <v>53407</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.0004584301168304787</v>
+        <v>0.0006283863961399248</v>
       </c>
       <c r="B21">
         <v>53407</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>7.385402221064442e-5</v>
+        <v>0.0018941522310080882</v>
       </c>
       <c r="B22">
         <v>53407</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.001137420779803926</v>
+        <v>0.0032842733621454693</v>
       </c>
       <c r="B23">
         <v>53407</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.0004003655862886214</v>
+        <v>0.00023227931891570616</v>
       </c>
       <c r="B24">
         <v>53407</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0009024126245076268</v>
+        <v>0.0009419192211946603</v>
       </c>
       <c r="B25">
         <v>53407</v>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.0027395430741052303</v>
+        <v>0.0003409345664703177</v>
       </c>
       <c r="B26">
         <v>53407</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.0003768325306605024</v>
+        <v>0.0007122550760332821</v>
       </c>
       <c r="B27">
         <v>53407</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3.688716459975175e-5</v>
+        <v>0.00017128305784967833</v>
       </c>
       <c r="B28">
         <v>53407</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.00028664669816493856</v>
+        <v>0.00018019815538982203</v>
       </c>
       <c r="B29">
         <v>53407</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.00028218768347773387</v>
+        <v>0.00014466116563133978</v>
       </c>
       <c r="B30">
         <v>53407</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0009833928147647347</v>
+        <v>3.9761898217024455e-5</v>
       </c>
       <c r="B31">
         <v>53407</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.00022691722409016977</v>
+        <v>5.837727515270175e-5</v>
       </c>
       <c r="B32">
         <v>53407</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.0001449067230116197</v>
+        <v>0.011830722091708526</v>
       </c>
       <c r="B33">
         <v>53407</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.005246513610608138</v>
+        <v>8.852458804441932e-5</v>
       </c>
       <c r="B34">
         <v>53407</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.00010052521602623205</v>
+        <v>0.00022940516567372524</v>
       </c>
       <c r="B35">
         <v>53407</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.0009505768022991041</v>
+        <v>0.0008405579859140134</v>
       </c>
       <c r="B36">
         <v>53407</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2.6409813916658488e-5</v>
+        <v>0.0001305474734789505</v>
       </c>
       <c r="B37">
         <v>53407</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.00016996292658738037</v>
+        <v>0.00026748744847595706</v>
       </c>
       <c r="B38">
         <v>53407</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.00017957683961335787</v>
+        <v>0.0011089689481261402</v>
       </c>
       <c r="B39">
         <v>53407</v>
@@ -13208,7 +13208,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4.209092593063536e-5</v>
+        <v>0.0008182026321323957</v>
       </c>
       <c r="B40">
         <v>53407</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>9.40008187007794e-5</v>
+        <v>0.0015537260248944837</v>
       </c>
       <c r="B41">
         <v>53407</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.0001691941897285914</v>
+        <v>0.0005471947769937637</v>
       </c>
       <c r="B42">
         <v>53407</v>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4.277260230756991e-5</v>
+        <v>0.0005197225709255784</v>
       </c>
       <c r="B43">
         <v>53407</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.00024354768536029387</v>
+        <v>0.0005710081229859342</v>
       </c>
       <c r="B44">
         <v>53407</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.00019131858420094337</v>
+        <v>0.0004459832884928513</v>
       </c>
       <c r="B45">
         <v>53407</v>
@@ -13274,7 +13274,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.0010371996670847398</v>
+        <v>0.00023465651022308332</v>
       </c>
       <c r="B46">
         <v>53407</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.00031365059551724837</v>
+        <v>9.161020798153884e-5</v>
       </c>
       <c r="B47">
         <v>53407</v>
@@ -13296,7 +13296,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.00036967568577335106</v>
+        <v>0.00039981115770437286</v>
       </c>
       <c r="B48">
         <v>53407</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.0009473969289856274</v>
+        <v>0.00037254656171028063</v>
       </c>
       <c r="B49">
         <v>53407</v>
@@ -13318,7 +13318,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.0017020119371529744</v>
+        <v>0.0035857055080030734</v>
       </c>
       <c r="B50">
         <v>53407</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.00030374377158477923</v>
+        <v>0.0004929368195514339</v>
       </c>
       <c r="B51">
         <v>53407</v>
@@ -13340,7 +13340,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.00010310550700142137</v>
+        <v>0.0014772579275179273</v>
       </c>
       <c r="B52">
         <v>53407</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.0009422077976531049</v>
+        <v>0.00042849811414765615</v>
       </c>
       <c r="B53">
         <v>53407</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.0008178753125857661</v>
+        <v>0.0001500593127427608</v>
       </c>
       <c r="B54">
         <v>53407</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.0005185544147885512</v>
+        <v>0.00046030522537280103</v>
       </c>
       <c r="B55">
         <v>53407</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.0014979347699556505</v>
+        <v>0.0005296889193357089</v>
       </c>
       <c r="B56">
         <v>53407</v>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.0005486872405300013</v>
+        <v>0.00016249728140970462</v>
       </c>
       <c r="B57">
         <v>53407</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.00018459341455983488</v>
+        <v>0.00012996165156481068</v>
       </c>
       <c r="B58">
         <v>53407</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.0001612414927787609</v>
+        <v>3.7792849974230315e-5</v>
       </c>
       <c r="B59">
         <v>53407</v>
@@ -13428,7 +13428,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.0013669115030362307</v>
+        <v>0.0003108380439670194</v>
       </c>
       <c r="B60">
         <v>53407</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.0004703783442926887</v>
+        <v>9.870659302051491e-5</v>
       </c>
       <c r="B61">
         <v>53407</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.0004902433115704964</v>
+        <v>0.0005295878114389527</v>
       </c>
       <c r="B62">
         <v>53407</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.0003460970779702272</v>
+        <v>0.00019203078457982465</v>
       </c>
       <c r="B63">
         <v>53407</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.0005767513330790554</v>
+        <v>8.517831203788196e-5</v>
       </c>
       <c r="B64">
         <v>53407</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.0028221756276220035</v>
+        <v>0.0020770741483372287</v>
       </c>
       <c r="B65">
         <v>53407</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.00022372904013620524</v>
+        <v>0.0005163951304187049</v>
       </c>
       <c r="B66">
         <v>53407</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.0011736492423557485</v>
+        <v>0.0002946918446122602</v>
       </c>
       <c r="B67">
         <v>53407</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.00045121979758631057</v>
+        <v>9.444140984258223e-5</v>
       </c>
       <c r="B68">
         <v>53407</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.0006553827521917713</v>
+        <v>0.0007948507886306012</v>
       </c>
       <c r="B69">
         <v>53407</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.0003417718307476273</v>
+        <v>9.540359784526207e-5</v>
       </c>
       <c r="B70">
         <v>53407</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.00034680779088337103</v>
+        <v>0.00042580303956096615</v>
       </c>
       <c r="B71">
         <v>53407</v>
@@ -13560,7 +13560,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.0002796841463334061</v>
+        <v>0.0002051256915111527</v>
       </c>
       <c r="B72">
         <v>53407</v>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.003618081830406571</v>
+        <v>6.618098895209709e-5</v>
       </c>
       <c r="B73">
         <v>53407</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>8.999039303693034e-5</v>
+        <v>0.0008383600678748072</v>
       </c>
       <c r="B74">
         <v>53407</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.0002911795776831519</v>
+        <v>0.00019977648734943374</v>
       </c>
       <c r="B75">
         <v>53407</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.0003129126973354288</v>
+        <v>0.0024212074674684852</v>
       </c>
       <c r="B76">
         <v>53407</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.00033893415261622916</v>
+        <v>0.0030001550921221376</v>
       </c>
       <c r="B77">
         <v>53407</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>7.709951515759474e-5</v>
+        <v>4.902002302873567e-5</v>
       </c>
       <c r="B78">
         <v>53407</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.00011513401926909798</v>
+        <v>8.563533097729723e-5</v>
       </c>
       <c r="B79">
         <v>53407</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3.071013605081357e-5</v>
+        <v>0.00046428919381153697</v>
       </c>
       <c r="B80">
         <v>53407</v>
@@ -13659,7 +13659,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.0016108165904470497</v>
+        <v>0.00017655423535687924</v>
       </c>
       <c r="B81">
         <v>53407</v>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.0006923530996923552</v>
+        <v>0.00020717328344003243</v>
       </c>
       <c r="B82">
         <v>53407</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.0006156213018528858</v>
+        <v>0.0014400543408222256</v>
       </c>
       <c r="B83">
         <v>53407</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>4.888419799397459e-5</v>
+        <v>0.0004252610678168338</v>
       </c>
       <c r="B84">
         <v>53407</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.00031525826284545656</v>
+        <v>0.0002149232657603276</v>
       </c>
       <c r="B85">
         <v>53407</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.00012223005702482838</v>
+        <v>0.00011895326495537003</v>
       </c>
       <c r="B86">
         <v>53407</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.0005621519413559974</v>
+        <v>0.00022397698192519661</v>
       </c>
       <c r="B87">
         <v>53407</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.00011775790037345981</v>
+        <v>0.00060423929403128</v>
       </c>
       <c r="B88">
         <v>53407</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.0018277492895909164</v>
+        <v>0.0002726653201821585</v>
       </c>
       <c r="B89">
         <v>53407</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.00014018984049940581</v>
+        <v>0.0033354643635250623</v>
       </c>
       <c r="B90">
         <v>53407</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3.373477918013091e-5</v>
+        <v>0.0018156088619482526</v>
       </c>
       <c r="B91">
         <v>53407</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>5.6122680954463975e-5</v>
+        <v>0.0011121613845087837</v>
       </c>
       <c r="B92">
         <v>53407</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.0031201509440309102</v>
+        <v>0.0003529784501976499</v>
       </c>
       <c r="B93">
         <v>53407</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.0005941359782834576</v>
+        <v>0.0004113452620092025</v>
       </c>
       <c r="B94">
         <v>53407</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>9.982601362128858e-5</v>
+        <v>0.0002933694990371699</v>
       </c>
       <c r="B95">
         <v>53407</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.00019649759741496246</v>
+        <v>0.003153492349302341</v>
       </c>
       <c r="B96">
         <v>53407</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.00029181394076273495</v>
+        <v>0.0017211947273339586</v>
       </c>
       <c r="B97">
         <v>53407</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.00022635697408708217</v>
+        <v>0.0005708830921959337</v>
       </c>
       <c r="B98">
         <v>53407</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.0010805261838679268</v>
+        <v>0.00013194261700811682</v>
       </c>
       <c r="B99">
         <v>53407</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.0009970221777628001</v>
+        <v>9.171268841218761e-5</v>
       </c>
       <c r="B100">
         <v>53407</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.00010244482702906913</v>
+        <v>0.00011577464145541616</v>
       </c>
       <c r="B101">
         <v>53407</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.001732582991210135</v>
+        <v>13.10682951405378</v>
       </c>
       <c r="B2">
         <v>6264149</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>31.968985688065032</v>
+        <v>0.010415609368611661</v>
       </c>
       <c r="B3">
         <v>6264149</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>29.342221645888337</v>
+        <v>0.004065943592543015</v>
       </c>
       <c r="B4">
         <v>6264149</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>35.947130144146456</v>
+        <v>91.63934031406026</v>
       </c>
       <c r="B5">
         <v>6264149</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>20.023343407043367</v>
+        <v>25.923495268206747</v>
       </c>
       <c r="B6">
         <v>6264149</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>8.069589037807388</v>
+        <v>35.80211861285849</v>
       </c>
       <c r="B7">
         <v>6264149</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>89.91658057181569</v>
+        <v>30.9417950881248</v>
       </c>
       <c r="B8">
         <v>6264149</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0007893719540754606</v>
+        <v>1.1506064176075923e-6</v>
       </c>
       <c r="B9">
         <v>6264149</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>32.91321927461005</v>
+        <v>0.0010131840648490845</v>
       </c>
       <c r="B10">
         <v>6264149</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.00767987370859163</v>
+        <v>29.435982953586645</v>
       </c>
       <c r="B11">
         <v>6264149</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.020894646685582e-7</v>
+        <v>0.001322694048835674</v>
       </c>
       <c r="B12">
         <v>6264149</v>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5.596496881489778</v>
+        <v>31.0001857531842</v>
       </c>
       <c r="B13">
         <v>6264149</v>
@@ -15170,7 +15170,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.0026633127100428268</v>
+        <v>20.224731802658134</v>
       </c>
       <c r="B14">
         <v>6264149</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>94.55864264087423</v>
+        <v>30.040584677343098</v>
       </c>
       <c r="B15">
         <v>6264149</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>31.433140731526972</v>
+        <v>4.2317042615201075</v>
       </c>
       <c r="B16">
         <v>6264149</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>91.11481785380305</v>
+        <v>0.001608062603183269</v>
       </c>
       <c r="B17">
         <v>6264149</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>26.03715645871566</v>
+        <v>0.0026654659941902047</v>
       </c>
       <c r="B18">
         <v>6264149</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>27.68434772489321</v>
+        <v>117.27001973619608</v>
       </c>
       <c r="B19">
         <v>6264149</v>
@@ -15236,7 +15236,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>95.96403882956278</v>
+        <v>14.10422361985329</v>
       </c>
       <c r="B20">
         <v>6264149</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>22.017086033417076</v>
+        <v>0.0026716216999884248</v>
       </c>
       <c r="B21">
         <v>6264149</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>16.6889970325241</v>
+        <v>0.0031081459561764398</v>
       </c>
       <c r="B22">
         <v>6264149</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>7.601673560357852</v>
+        <v>0.006753092742734612</v>
       </c>
       <c r="B23">
         <v>6264149</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.00149209658891674</v>
+        <v>0.0008610104097761665</v>
       </c>
       <c r="B24">
         <v>6264149</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0028204823107976056</v>
+        <v>134.32254263477046</v>
       </c>
       <c r="B25">
         <v>6264149</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>26.28681733371895</v>
+        <v>6.87565234229347</v>
       </c>
       <c r="B26">
         <v>6264149</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>14.139958190722957</v>
+        <v>0.003013604592268096</v>
       </c>
       <c r="B27">
         <v>6264149</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.0035612316773569242</v>
+        <v>34.04899357760222</v>
       </c>
       <c r="B28">
         <v>6264149</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>98.13262907425258</v>
+        <v>0.00268761227327492</v>
       </c>
       <c r="B29">
         <v>6264149</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>89.92121858507642</v>
+        <v>23.436474028508144</v>
       </c>
       <c r="B30">
         <v>6264149</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>29.91808828903468</v>
+        <v>102.9167360407145</v>
       </c>
       <c r="B31">
         <v>6264149</v>
@@ -15368,7 +15368,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.0018565867287865816</v>
+        <v>92.11780692521985</v>
       </c>
       <c r="B32">
         <v>6264149</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>82.73054851215093</v>
+        <v>0.0032690264715998195</v>
       </c>
       <c r="B33">
         <v>6264149</v>
@@ -15390,7 +15390,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>27.975479300281947</v>
+        <v>5.263843273094868</v>
       </c>
       <c r="B34">
         <v>6264149</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>85.71706864701578</v>
+        <v>0.002051097953803763</v>
       </c>
       <c r="B35">
         <v>6264149</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>29.11469249088748</v>
+        <v>89.7491050309499</v>
       </c>
       <c r="B36">
         <v>6264149</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>89.03312228566095</v>
+        <v>0.0010752532793693193</v>
       </c>
       <c r="B37">
         <v>6264149</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>29.90764279861969</v>
+        <v>26.310827935328362</v>
       </c>
       <c r="B38">
         <v>6264149</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>26.991476450441127</v>
+        <v>84.48479895665982</v>
       </c>
       <c r="B39">
         <v>6264149</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>22.096311745064067</v>
+        <v>0.004557821345590685</v>
       </c>
       <c r="B40">
         <v>6264149</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>29.026592658119892</v>
+        <v>0.00411086049225517</v>
       </c>
       <c r="B41">
         <v>6264149</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5.185819887523204</v>
+        <v>0.002767573896569022</v>
       </c>
       <c r="B42">
         <v>6264149</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>89.43837392108486</v>
+        <v>25.368351034185757</v>
       </c>
       <c r="B43">
         <v>6264149</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>115.17222820596362</v>
+        <v>98.63866864243326</v>
       </c>
       <c r="B44">
         <v>6264149</v>
@@ -15511,7 +15511,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.0013472686867817196</v>
+        <v>100.48975917238745</v>
       </c>
       <c r="B45">
         <v>6264149</v>
@@ -15522,7 +15522,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>95.97450459764941</v>
+        <v>94.04402939875207</v>
       </c>
       <c r="B46">
         <v>6264149</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>104.61296707778695</v>
+        <v>86.24379670082263</v>
       </c>
       <c r="B47">
         <v>6264149</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.0026199455942195176</v>
+        <v>33.046867635919035</v>
       </c>
       <c r="B48">
         <v>6264149</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.0011012215808613919</v>
+        <v>32.851144413434476</v>
       </c>
       <c r="B49">
         <v>6264149</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>30.924921520870807</v>
+        <v>0.0057459168955800045</v>
       </c>
       <c r="B50">
         <v>6264149</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>111.36206893084943</v>
+        <v>97.22054900672703</v>
       </c>
       <c r="B51">
         <v>6264149</v>
@@ -15588,7 +15588,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>16.021150942563008</v>
+        <v>26.008183111522346</v>
       </c>
       <c r="B52">
         <v>6264149</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>20.0692252650236</v>
+        <v>0.003496776240316776</v>
       </c>
       <c r="B53">
         <v>6264149</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>35.87112674067929</v>
+        <v>1.3038230013063776</v>
       </c>
       <c r="B54">
         <v>6264149</v>
@@ -15621,7 +15621,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>94.67135266984545</v>
+        <v>26.986534017859768</v>
       </c>
       <c r="B55">
         <v>6264149</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.00411728390333646</v>
+        <v>33.06757887055352</v>
       </c>
       <c r="B56">
         <v>6264149</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>26.927783794170896</v>
+        <v>24.613680781367332</v>
       </c>
       <c r="B57">
         <v>6264149</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>86.69111104217279</v>
+        <v>0.0012338759522715907</v>
       </c>
       <c r="B58">
         <v>6264149</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>30.232396612933467</v>
+        <v>0.0028158118467383943</v>
       </c>
       <c r="B59">
         <v>6264149</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.0029011361132151086</v>
+        <v>0.0018347307495844914</v>
       </c>
       <c r="B60">
         <v>6264149</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>34.935441041274785</v>
+        <v>23.024711261966146</v>
       </c>
       <c r="B61">
         <v>6264149</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>20.12988444707769</v>
+        <v>22.036490850638003</v>
       </c>
       <c r="B62">
         <v>6264149</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>102.9440724913437</v>
+        <v>15.112615387373891</v>
       </c>
       <c r="B63">
         <v>6264149</v>
@@ -15720,7 +15720,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>25.04054546848002</v>
+        <v>19.672115355906357</v>
       </c>
       <c r="B64">
         <v>6264149</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>20.103185466846636</v>
+        <v>17.111460673411546</v>
       </c>
       <c r="B65">
         <v>6264149</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.006983708325096972</v>
+        <v>6.946989644119898</v>
       </c>
       <c r="B66">
         <v>6264149</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1.3532703049709718</v>
+        <v>0.005423366019199755</v>
       </c>
       <c r="B67">
         <v>6264149</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>33.92042821344711</v>
+        <v>0.0017410096880390877</v>
       </c>
       <c r="B68">
         <v>6264149</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>20.980099460080154</v>
+        <v>10.188779303895668</v>
       </c>
       <c r="B69">
         <v>6264149</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>29.961541507652747</v>
+        <v>18.060825535612917</v>
       </c>
       <c r="B70">
         <v>6264149</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>23.07609667139308</v>
+        <v>0.0017772873358335266</v>
       </c>
       <c r="B71">
         <v>6264149</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.0013786570936186347</v>
+        <v>27.71921206542856</v>
       </c>
       <c r="B72">
         <v>6264149</v>
@@ -15819,7 +15819,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>32.540178262138994</v>
+        <v>17.336574306573272</v>
       </c>
       <c r="B73">
         <v>6264149</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.0017033375904131093</v>
+        <v>0.001527529195680612</v>
       </c>
       <c r="B74">
         <v>6264149</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>17.097482785695377</v>
+        <v>0.016255481537610306</v>
       </c>
       <c r="B75">
         <v>6264149</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>21.03653058399511</v>
+        <v>29.670500733539924</v>
       </c>
       <c r="B76">
         <v>6264149</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.0018600898682700339</v>
+        <v>17.081374560024656</v>
       </c>
       <c r="B77">
         <v>6264149</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>34.91936252774044</v>
+        <v>28.484577881921844</v>
       </c>
       <c r="B78">
         <v>6264149</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>23.048396643538524</v>
+        <v>0.0020629602223107054</v>
       </c>
       <c r="B79">
         <v>6264149</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>80.8309065722132</v>
+        <v>0.0022573030901808463</v>
       </c>
       <c r="B80">
         <v>6264149</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>8.182702782086114e-6</v>
+        <v>76.40547445966203</v>
       </c>
       <c r="B81">
         <v>6264149</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>74.2605851195683</v>
+        <v>0.020137953020650905</v>
       </c>
       <c r="B82">
         <v>6264149</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>100.48977098109893</v>
+        <v>8.660611513254024</v>
       </c>
       <c r="B83">
         <v>6264149</v>
@@ -15940,7 +15940,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>22.917885162000275</v>
+        <v>20.03390322581503</v>
       </c>
       <c r="B84">
         <v>6264149</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>88.69615586262147</v>
+        <v>0.0010554971083546227</v>
       </c>
       <c r="B85">
         <v>6264149</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>26.023650444015534</v>
+        <v>74.19253009702823</v>
       </c>
       <c r="B86">
         <v>6264149</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.0019279806836878634</v>
+        <v>0.0025831210601733766</v>
       </c>
       <c r="B87">
         <v>6264149</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.011769967553059634</v>
+        <v>15.077512860137906</v>
       </c>
       <c r="B88">
         <v>6264149</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>9.150968952999497</v>
+        <v>35.79927065099202</v>
       </c>
       <c r="B89">
         <v>6264149</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>23.040150318429625</v>
+        <v>34.89017049638622</v>
       </c>
       <c r="B90">
         <v>6264149</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3.900649504851983</v>
+        <v>89.62299745877405</v>
       </c>
       <c r="B91">
         <v>6264149</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>4.922302123080876</v>
+        <v>30.026394960975594</v>
       </c>
       <c r="B92">
         <v>6264149</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>89.63039667636677</v>
+        <v>96.75249702289312</v>
       </c>
       <c r="B93">
         <v>6264149</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>32.792314676687866</v>
+        <v>30.008643932318755</v>
       </c>
       <c r="B94">
         <v>6264149</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.0032260600761060444</v>
+        <v>28.906266661833385</v>
       </c>
       <c r="B95">
         <v>6264149</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>26.049846153207817</v>
+        <v>33.9542600468506</v>
       </c>
       <c r="B96">
         <v>6264149</v>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>32.95475632697682</v>
+        <v>24.01934388033129</v>
       </c>
       <c r="B97">
         <v>6264149</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>20.066567760781094</v>
+        <v>97.77014438906741</v>
       </c>
       <c r="B98">
         <v>6264149</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.001752622793060017</v>
+        <v>4.546685431607145e-6</v>
       </c>
       <c r="B99">
         <v>6264149</v>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>30.03819816109193</v>
+        <v>0.005434212164871844</v>
       </c>
       <c r="B100">
         <v>6264149</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.14076328560574508</v>
+        <v>0.0019866885750596044</v>
       </c>
       <c r="B101">
         <v>6264149</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>39.79834717027461</v>
+        <v>36.813470613019945</v>
       </c>
       <c r="B2">
         <v>1008007</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>47.75804245328527</v>
+        <v>28.85380663100841</v>
       </c>
       <c r="B3">
         <v>1008007</v>
@@ -16184,7 +16184,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>19.899181141867757</v>
+        <v>36.8134945923905</v>
       </c>
       <c r="B4">
         <v>1008007</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>36.813464961176635</v>
+        <v>39.79840132135689</v>
       </c>
       <c r="B5">
         <v>1008007</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>29.84876667497997</v>
+        <v>41.78825673046322</v>
       </c>
       <c r="B6">
         <v>1008007</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>26.86388446740966</v>
+        <v>27.858894122636173</v>
       </c>
       <c r="B7">
         <v>1008007</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>32.833640210185024</v>
+        <v>32.83889170943712</v>
       </c>
       <c r="B8">
         <v>1008007</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>32.83364384625963</v>
+        <v>19.899176104046944</v>
       </c>
       <c r="B9">
         <v>1008007</v>
@@ -16250,7 +16250,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>29.848814756938282</v>
+        <v>25.868925429678143</v>
       </c>
       <c r="B10">
         <v>1008007</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>48.75443397989068</v>
+        <v>27.85884856081543</v>
       </c>
       <c r="B11">
         <v>1008007</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>21.889094218233367</v>
+        <v>35.81853263646542</v>
       </c>
       <c r="B12">
         <v>1008007</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>43.782915454198644</v>
+        <v>25.86893044660667</v>
       </c>
       <c r="B13">
         <v>1008007</v>
@@ -16294,7 +16294,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>30.84373637126646</v>
+        <v>34.82374907502083</v>
       </c>
       <c r="B14">
         <v>1008007</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>35.83008287329949</v>
+        <v>39.798337094636395</v>
       </c>
       <c r="B15">
         <v>1008007</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>20.894140421148904</v>
+        <v>31.840660860244725</v>
       </c>
       <c r="B16">
         <v>1008007</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>34.82355188480807</v>
+        <v>23.879872120987443</v>
       </c>
       <c r="B17">
         <v>1008007</v>
@@ -16338,7 +16338,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>33.82859282771477</v>
+        <v>50.7918802941075</v>
       </c>
       <c r="B18">
         <v>1008007</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>26.86389454151913</v>
+        <v>28.855347938322325</v>
       </c>
       <c r="B19">
         <v>1008007</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>29.84876667498571</v>
+        <v>33.828592828369096</v>
       </c>
       <c r="B20">
         <v>1008007</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>38.803848609956106</v>
+        <v>25.86893562419118</v>
       </c>
       <c r="B21">
         <v>1008007</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>36.81390141644221</v>
+        <v>21.88909425684642</v>
       </c>
       <c r="B22">
         <v>1008007</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>38.803400622954484</v>
+        <v>20.894137260618663</v>
       </c>
       <c r="B23">
         <v>1008007</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>37.80842905608813</v>
+        <v>27.858877574421285</v>
       </c>
       <c r="B24">
         <v>1008007</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>38.803383134565934</v>
+        <v>31.83872470888383</v>
       </c>
       <c r="B25">
         <v>1008007</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>24.873976427391426</v>
+        <v>42.783219303735734</v>
       </c>
       <c r="B26">
         <v>1008007</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>22.884058313145886</v>
+        <v>37.80842710968659</v>
       </c>
       <c r="B27">
         <v>1008007</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>36.81418926175354</v>
+        <v>33.8285978667094</v>
       </c>
       <c r="B28">
         <v>1008007</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>36.813465093595255</v>
+        <v>44.773132380102766</v>
       </c>
       <c r="B29">
         <v>1008007</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>37.808439131734644</v>
+        <v>24.873971389513258</v>
       </c>
       <c r="B30">
         <v>1008007</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>27.858843522974098</v>
+        <v>34.82355188480847</v>
       </c>
       <c r="B31">
         <v>1008007</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>30.9040781256615</v>
+        <v>26.863894541519358</v>
       </c>
       <c r="B32">
         <v>1008007</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>38.80412633679987</v>
+        <v>36.813661768234624</v>
       </c>
       <c r="B33">
         <v>1008007</v>
@@ -16514,7 +16514,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>26.86389455540268</v>
+        <v>26.863889504359236</v>
       </c>
       <c r="B34">
         <v>1008007</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>25.870521871988217</v>
+        <v>38.80338307536215</v>
       </c>
       <c r="B35">
         <v>1008007</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>30.843720694253875</v>
+        <v>24.873976427569914</v>
       </c>
       <c r="B36">
         <v>1008007</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>31.847838345986816</v>
+        <v>27.860236298606708</v>
       </c>
       <c r="B37">
         <v>1008007</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>24.873971389513372</v>
+        <v>29.848761753396445</v>
       </c>
       <c r="B38">
         <v>1008007</v>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>24.8739663516958</v>
+        <v>39.80285343223392</v>
       </c>
       <c r="B39">
         <v>1008007</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>26.86388950371122</v>
+        <v>40.79329615172992</v>
       </c>
       <c r="B40">
         <v>1008007</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>28.85381004655096</v>
+        <v>46.763044466313715</v>
       </c>
       <c r="B41">
         <v>1008007</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>25.868926161740205</v>
+        <v>29.848761637197697</v>
       </c>
       <c r="B42">
         <v>1008007</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>35.818521017636954</v>
+        <v>23.879349052136718</v>
       </c>
       <c r="B43">
         <v>1008007</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>26.863884465883984</v>
+        <v>27.858848560793263</v>
       </c>
       <c r="B44">
         <v>1008007</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>45.768096511902684</v>
+        <v>30.84372084603376</v>
       </c>
       <c r="B45">
         <v>1008007</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>35.81877487291274</v>
+        <v>31.838684789166336</v>
       </c>
       <c r="B46">
         <v>1008007</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>30.843720728117546</v>
+        <v>33.083161482651064</v>
       </c>
       <c r="B47">
         <v>1008007</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>21.889100577695217</v>
+        <v>28.853810375975172</v>
       </c>
       <c r="B48">
         <v>1008007</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>35.82207847733957</v>
+        <v>30.84372573207304</v>
       </c>
       <c r="B49">
         <v>1008007</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>30.843897095988893</v>
+        <v>34.82355692262729</v>
       </c>
       <c r="B50">
         <v>1008007</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>33.8286025533215</v>
+        <v>43.78769407523998</v>
       </c>
       <c r="B51">
         <v>1008007</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>28.122311484512238</v>
+        <v>34.82645518135229</v>
       </c>
       <c r="B52">
         <v>1008007</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>32.8336337706221</v>
+        <v>32.83363880873401</v>
       </c>
       <c r="B53">
         <v>1008007</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>36.81776124332367</v>
+        <v>32.83363913161543</v>
       </c>
       <c r="B54">
         <v>1008007</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>37.80842905772397</v>
+        <v>26.86389604967667</v>
       </c>
       <c r="B55">
         <v>1008007</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>18.90422208477264</v>
+        <v>24.873976427332423</v>
       </c>
       <c r="B56">
         <v>1008007</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>23.879340977492916</v>
+        <v>27.8588486559363</v>
       </c>
       <c r="B57">
         <v>1008007</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>22.884328499380217</v>
+        <v>17.940242902971477</v>
       </c>
       <c r="B58">
         <v>1008007</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>25.86893548442572</v>
+        <v>31.838684808096673</v>
       </c>
       <c r="B59">
         <v>1008007</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>42.783238118992415</v>
+        <v>25.868991314271625</v>
       </c>
       <c r="B60">
         <v>1008007</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>23.87906124591325</v>
+        <v>24.87397145875184</v>
       </c>
       <c r="B61">
         <v>1008007</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>32.83363880844058</v>
+        <v>35.81851094190313</v>
       </c>
       <c r="B62">
         <v>1008007</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>26.86388950370008</v>
+        <v>29.848766674979856</v>
       </c>
       <c r="B63">
         <v>1008007</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>42.78321930373522</v>
+        <v>32.836134296767455</v>
       </c>
       <c r="B64">
         <v>1008007</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>31.838680878974742</v>
+        <v>27.85884856079315</v>
       </c>
       <c r="B65">
         <v>1008007</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>28.853807773934136</v>
+        <v>21.889094218265768</v>
       </c>
       <c r="B66">
         <v>1008007</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>29.848850695583394</v>
+        <v>46.76305106471466</v>
       </c>
       <c r="B67">
         <v>1008007</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>23.879012332420075</v>
+        <v>33.82861639548605</v>
       </c>
       <c r="B68">
         <v>1008007</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>29.848761637162283</v>
+        <v>22.884276875990167</v>
       </c>
       <c r="B69">
         <v>1008007</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>36.81345488633008</v>
+        <v>37.80843409390701</v>
       </c>
       <c r="B70">
         <v>1008007</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>31.83881872486063</v>
+        <v>29.848762479382117</v>
       </c>
       <c r="B71">
         <v>1008007</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>27.858843522974098</v>
+        <v>39.79898825821351</v>
       </c>
       <c r="B72">
         <v>1008007</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>38.8033881131812</v>
+        <v>27.8588389991545</v>
       </c>
       <c r="B73">
         <v>1008007</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>31.8386797513474</v>
+        <v>32.83364889201732</v>
       </c>
       <c r="B74">
         <v>1008007</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>25.868938685896808</v>
+        <v>30.843729631214046</v>
       </c>
       <c r="B75">
         <v>1008007</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>28.867071384219685</v>
+        <v>36.813464961175555</v>
       </c>
       <c r="B76">
         <v>1008007</v>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>39.79835220809366</v>
+        <v>29.848766890219622</v>
       </c>
       <c r="B77">
         <v>1008007</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>33.82859305126124</v>
+        <v>24.875895355629154</v>
       </c>
       <c r="B78">
         <v>1008007</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>32.83363880844064</v>
+        <v>31.838679828061004</v>
       </c>
       <c r="B79">
         <v>1008007</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>24.873971389513258</v>
+        <v>39.798342183180694</v>
       </c>
       <c r="B80">
         <v>1008007</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>19.91166668287758</v>
+        <v>31.838681689726172</v>
       </c>
       <c r="B81">
         <v>1008007</v>
@@ -17042,7 +17042,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>24.873971389513372</v>
+        <v>30.843776145406764</v>
       </c>
       <c r="B82">
         <v>1008007</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>31.838677160318866</v>
+        <v>22.88415029331918</v>
       </c>
       <c r="B83">
         <v>1008007</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>32.84167771462842</v>
+        <v>37.80842434366218</v>
       </c>
       <c r="B84">
         <v>1008007</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>31.83867471352903</v>
+        <v>33.828597865770575</v>
       </c>
       <c r="B85">
         <v>1008007</v>
@@ -17086,7 +17086,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>21.889190729827533</v>
+        <v>25.868930446606555</v>
       </c>
       <c r="B86">
         <v>1008007</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>35.818511353330166</v>
+        <v>42.78321426591674</v>
       </c>
       <c r="B87">
         <v>1008007</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>45.76806625935092</v>
+        <v>23.879007888775504</v>
       </c>
       <c r="B88">
         <v>1008007</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>38.80338307572953</v>
+        <v>23.879017370245833</v>
       </c>
       <c r="B89">
         <v>1008007</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>29.848761637170924</v>
+        <v>28.853837943315625</v>
       </c>
       <c r="B90">
         <v>1008007</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>18.904222084773437</v>
+        <v>27.85890966568951</v>
       </c>
       <c r="B91">
         <v>1008007</v>
@@ -17152,7 +17152,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>29.849152235955216</v>
+        <v>25.86893548442572</v>
       </c>
       <c r="B92">
         <v>1008007</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>27.858843672734793</v>
+        <v>27.858843523638257</v>
       </c>
       <c r="B93">
         <v>1008007</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>31.83868514936853</v>
+        <v>39.798347196101304</v>
       </c>
       <c r="B94">
         <v>1008007</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>35.81852101753964</v>
+        <v>26.863884466119202</v>
       </c>
       <c r="B95">
         <v>1008007</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>34.823556923716865</v>
+        <v>25.86893548442572</v>
       </c>
       <c r="B96">
         <v>1008007</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>25.87439591280065</v>
+        <v>37.80842401826885</v>
       </c>
       <c r="B97">
         <v>1008007</v>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>26.863884552260288</v>
+        <v>40.871701280960565</v>
       </c>
       <c r="B98">
         <v>1008007</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>31.8386770076674</v>
+        <v>26.863889521261285</v>
       </c>
       <c r="B99">
         <v>1008007</v>
@@ -17240,7 +17240,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>37.808429124497025</v>
+        <v>47.75800957261356</v>
       </c>
       <c r="B100">
         <v>1008007</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>41.78826059384039</v>
+        <v>33.82859786553388</v>
       </c>
       <c r="B101">
         <v>1008007</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.00012464206858098237</v>
+        <v>2.1445607487180496e-5</v>
       </c>
       <c r="B2">
         <v>87121</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5.995853866380685e-5</v>
+        <v>5.963861310576135e-5</v>
       </c>
       <c r="B3">
         <v>87121</v>
@@ -17308,7 +17308,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4.0314959672826944e-5</v>
+        <v>2.8929174131775426e-5</v>
       </c>
       <c r="B4">
         <v>87121</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.8032595064786392e-5</v>
+        <v>4.076236835715008e-5</v>
       </c>
       <c r="B5">
         <v>87121</v>
@@ -17330,7 +17330,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3.0062217721393836e-5</v>
+        <v>5.664139915140254e-5</v>
       </c>
       <c r="B6">
         <v>87121</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0002860964357545015</v>
+        <v>0.00015421038230556405</v>
       </c>
       <c r="B7">
         <v>87121</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>7.658351851347334e-6</v>
+        <v>2.2622794656257383e-5</v>
       </c>
       <c r="B8">
         <v>87121</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9.229093210549877e-5</v>
+        <v>6.994418777139799e-5</v>
       </c>
       <c r="B9">
         <v>87121</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.00023972865617949424</v>
+        <v>0.0001584324131478354</v>
       </c>
       <c r="B10">
         <v>87121</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6.374096497907544e-5</v>
+        <v>1.4001389359918903e-5</v>
       </c>
       <c r="B11">
         <v>87121</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3.453259186514401e-5</v>
+        <v>5.9696106021078776e-5</v>
       </c>
       <c r="B12">
         <v>87121</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4.1925524055130836e-5</v>
+        <v>0.00016173538049457648</v>
       </c>
       <c r="B13">
         <v>87121</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.603558779450509e-5</v>
+        <v>0.00036162408774842447</v>
       </c>
       <c r="B14">
         <v>87121</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.00010964828676307548</v>
+        <v>3.754043498460646e-5</v>
       </c>
       <c r="B15">
         <v>87121</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4.5349719325571414e-5</v>
+        <v>0.00022194693268318133</v>
       </c>
       <c r="B16">
         <v>87121</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.5724792753246675e-5</v>
+        <v>0.00014797287574808138</v>
       </c>
       <c r="B17">
         <v>87121</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.2475137630474364e-5</v>
+        <v>1.5836298665306003e-5</v>
       </c>
       <c r="B18">
         <v>87121</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4.611933098175314e-5</v>
+        <v>0.00021323544386575577</v>
       </c>
       <c r="B19">
         <v>87121</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0001074410153059091</v>
+        <v>6.419211834796101e-5</v>
       </c>
       <c r="B20">
         <v>87121</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.0001229326058513891</v>
+        <v>1.8628015258315145e-5</v>
       </c>
       <c r="B21">
         <v>87121</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>5.6535003125191e-5</v>
+        <v>5.1033644577813675e-5</v>
       </c>
       <c r="B22">
         <v>87121</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.00015309424233933555</v>
+        <v>2.2995367441325243e-5</v>
       </c>
       <c r="B23">
         <v>87121</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.00022619677768531687</v>
+        <v>7.557437046656901e-5</v>
       </c>
       <c r="B24">
         <v>87121</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>8.860811460920104e-5</v>
+        <v>2.291337468562915e-5</v>
       </c>
       <c r="B25">
         <v>87121</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>5.7168786828043494e-5</v>
+        <v>1.3913829814526935e-5</v>
       </c>
       <c r="B26">
         <v>87121</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3.0328744912822003e-5</v>
+        <v>8.258027162000303e-5</v>
       </c>
       <c r="B27">
         <v>87121</v>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5.148039274160965e-5</v>
+        <v>2.40332314973557e-5</v>
       </c>
       <c r="B28">
         <v>87121</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5.48189505664709e-5</v>
+        <v>0.00010027948275492804</v>
       </c>
       <c r="B29">
         <v>87121</v>
@@ -17594,7 +17594,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.00015695524414027773</v>
+        <v>9.385077844470402e-5</v>
       </c>
       <c r="B30">
         <v>87121</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.0001377935224979865</v>
+        <v>5.5204211054871166e-5</v>
       </c>
       <c r="B31">
         <v>87121</v>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.2392408155648127e-5</v>
+        <v>0.00014276369314103476</v>
       </c>
       <c r="B32">
         <v>87121</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3.232441929412744e-5</v>
+        <v>2.6839465736117063e-5</v>
       </c>
       <c r="B33">
         <v>87121</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.00011210726926336179</v>
+        <v>0.00013451264076635994</v>
       </c>
       <c r="B34">
         <v>87121</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4.8837947947077964e-5</v>
+        <v>7.626871651211786e-5</v>
       </c>
       <c r="B35">
         <v>87121</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3.8179979615193815e-5</v>
+        <v>7.196046043489446e-5</v>
       </c>
       <c r="B36">
         <v>87121</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.0001304771620596057</v>
+        <v>7.787000149406254e-5</v>
       </c>
       <c r="B37">
         <v>87121</v>
@@ -17682,7 +17682,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3.223302130805905e-5</v>
+        <v>7.245697559810083e-5</v>
       </c>
       <c r="B38">
         <v>87121</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>6.81197510878917e-5</v>
+        <v>3.150038961408086e-5</v>
       </c>
       <c r="B39">
         <v>87121</v>
@@ -17704,7 +17704,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>7.504072187103361e-5</v>
+        <v>0.00014582518212336026</v>
       </c>
       <c r="B40">
         <v>87121</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0001521654296148256</v>
+        <v>4.407994211774735e-5</v>
       </c>
       <c r="B41">
         <v>87121</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.127614615332618e-5</v>
+        <v>4.253605979087638e-5</v>
       </c>
       <c r="B42">
         <v>87121</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.0001525739195713527</v>
+        <v>3.7890595162792806e-5</v>
       </c>
       <c r="B43">
         <v>87121</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.00016866162792439354</v>
+        <v>2.1862244469872394e-5</v>
       </c>
       <c r="B44">
         <v>87121</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3.5849953157196524e-5</v>
+        <v>0.00023798880876668704</v>
       </c>
       <c r="B45">
         <v>87121</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>7.676654900734547e-5</v>
+        <v>8.690839469949196e-5</v>
       </c>
       <c r="B46">
         <v>87121</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>6.694188695277603e-5</v>
+        <v>0.00014818659337123563</v>
       </c>
       <c r="B47">
         <v>87121</v>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3.873005998045187e-5</v>
+        <v>6.34080263779424e-5</v>
       </c>
       <c r="B48">
         <v>87121</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8.007826538403151e-5</v>
+        <v>8.261970846135114e-5</v>
       </c>
       <c r="B49">
         <v>87121</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>5.031456067783324e-5</v>
+        <v>2.111399157556093e-5</v>
       </c>
       <c r="B50">
         <v>87121</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>9.404928301393056e-5</v>
+        <v>3.8066251555335384e-5</v>
       </c>
       <c r="B51">
         <v>87121</v>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6.846466073540114e-5</v>
+        <v>4.669997206363519e-5</v>
       </c>
       <c r="B52">
         <v>87121</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3.276710037170005e-5</v>
+        <v>5.194772866090602e-5</v>
       </c>
       <c r="B53">
         <v>87121</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>7.911040238894884e-6</v>
+        <v>2.9729489160246203e-5</v>
       </c>
       <c r="B54">
         <v>87121</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1.904889786885633e-5</v>
+        <v>0.00012212929190624777</v>
       </c>
       <c r="B55">
         <v>87121</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>8.710700996772403e-5</v>
+        <v>0.0002544578609295911</v>
       </c>
       <c r="B56">
         <v>87121</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4.143079900131852e-5</v>
+        <v>4.8760397746150375e-5</v>
       </c>
       <c r="B57">
         <v>87121</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>6.335055854833627e-5</v>
+        <v>6.129252980713318e-5</v>
       </c>
       <c r="B58">
         <v>87121</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>7.077013838241442e-5</v>
+        <v>2.1337027916956686e-5</v>
       </c>
       <c r="B59">
         <v>87121</v>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>4.308217703652417e-5</v>
+        <v>4.49596541365338e-5</v>
       </c>
       <c r="B60">
         <v>87121</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>8.772433725567907e-5</v>
+        <v>6.382813715788416e-5</v>
       </c>
       <c r="B61">
         <v>87121</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>6.408948280167692e-5</v>
+        <v>9.851964493634568e-5</v>
       </c>
       <c r="B62">
         <v>87121</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>8.316282392684116e-5</v>
+        <v>0.00022140897839051377</v>
       </c>
       <c r="B63">
         <v>87121</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>5.567779064463707e-5</v>
+        <v>2.741853848675646e-5</v>
       </c>
       <c r="B64">
         <v>87121</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>6.293340892327137e-5</v>
+        <v>2.2481084876346813e-5</v>
       </c>
       <c r="B65">
         <v>87121</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3.0741791377408845e-5</v>
+        <v>1.1041221142704671e-5</v>
       </c>
       <c r="B66">
         <v>87121</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>7.459055960978844e-5</v>
+        <v>6.668502628315309e-5</v>
       </c>
       <c r="B67">
         <v>87121</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.00013302788969227208</v>
+        <v>0.0003429696647003766</v>
       </c>
       <c r="B68">
         <v>87121</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3.6385014016815376e-5</v>
+        <v>2.8048367926913897e-5</v>
       </c>
       <c r="B69">
         <v>87121</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3.689500403325496e-5</v>
+        <v>0.00020186479228812004</v>
       </c>
       <c r="B70">
         <v>87121</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>4.638596090345004e-5</v>
+        <v>4.188235953250796e-5</v>
       </c>
       <c r="B71">
         <v>87121</v>
@@ -18056,7 +18056,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2.4505843970956676e-5</v>
+        <v>0.00035046724793730277</v>
       </c>
       <c r="B72">
         <v>87121</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1.0668948529968247e-5</v>
+        <v>4.138094660532943e-5</v>
       </c>
       <c r="B73">
         <v>87121</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>4.3951615481319095e-5</v>
+        <v>2.17569259213235e-5</v>
       </c>
       <c r="B74">
         <v>87121</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.00011464529003646362</v>
+        <v>5.691322968814916e-5</v>
       </c>
       <c r="B75">
         <v>87121</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3.23174163447959e-5</v>
+        <v>1.7504632356946104e-5</v>
       </c>
       <c r="B76">
         <v>87121</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1.555261600927338e-5</v>
+        <v>6.214530673886998e-5</v>
       </c>
       <c r="B77">
         <v>87121</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2.3578053170325575e-5</v>
+        <v>6.44607407913611e-5</v>
       </c>
       <c r="B78">
         <v>87121</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>3.463128094693957e-5</v>
+        <v>0.00018926374697514348</v>
       </c>
       <c r="B79">
         <v>87121</v>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>7.139264817368485e-5</v>
+        <v>0.0001908808842294718</v>
       </c>
       <c r="B80">
         <v>87121</v>
@@ -18155,7 +18155,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>8.417924490444761e-5</v>
+        <v>4.819721618432027e-5</v>
       </c>
       <c r="B81">
         <v>87121</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2.36625667646706e-5</v>
+        <v>4.521566527770915e-5</v>
       </c>
       <c r="B82">
         <v>87121</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.00016289842565697654</v>
+        <v>9.855509346934355e-5</v>
       </c>
       <c r="B83">
         <v>87121</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>9.177461837595047e-5</v>
+        <v>4.412459157521198e-5</v>
       </c>
       <c r="B84">
         <v>87121</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>8.038098601659271e-5</v>
+        <v>1.5748693776629352e-5</v>
       </c>
       <c r="B85">
         <v>87121</v>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3.648527398425472e-5</v>
+        <v>6.81842757934703e-5</v>
       </c>
       <c r="B86">
         <v>87121</v>
@@ -18221,7 +18221,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4.9162041467099016e-5</v>
+        <v>5.009652387499841e-5</v>
       </c>
       <c r="B87">
         <v>87121</v>
@@ -18232,7 +18232,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>7.145741829717167e-5</v>
+        <v>6.027507259886988e-5</v>
       </c>
       <c r="B88">
         <v>87121</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>9.485118073371268e-5</v>
+        <v>0.00011686564850421632</v>
       </c>
       <c r="B89">
         <v>87121</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2.374065294219463e-5</v>
+        <v>9.202521250628592e-5</v>
       </c>
       <c r="B90">
         <v>87121</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>9.76555048204375e-5</v>
+        <v>2.1103843671710365e-5</v>
       </c>
       <c r="B91">
         <v>87121</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2.721301600772108e-5</v>
+        <v>2.6185765971575847e-5</v>
       </c>
       <c r="B92">
         <v>87121</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>7.992952947333265e-5</v>
+        <v>3.86242340404408e-5</v>
       </c>
       <c r="B93">
         <v>87121</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>8.182370627096702e-5</v>
+        <v>2.6121194519390656e-5</v>
       </c>
       <c r="B94">
         <v>87121</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>3.233217315212755e-5</v>
+        <v>0.00013525947069226163</v>
       </c>
       <c r="B95">
         <v>87121</v>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>6.907315207982379e-5</v>
+        <v>4.8047157449104816e-5</v>
       </c>
       <c r="B96">
         <v>87121</v>
@@ -18331,7 +18331,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.00017751764649887036</v>
+        <v>3.119986444843903e-5</v>
       </c>
       <c r="B97">
         <v>87121</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3.795351675250913e-5</v>
+        <v>7.120631065760108e-5</v>
       </c>
       <c r="B98">
         <v>87121</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>9.749044350471081e-5</v>
+        <v>1.3245164431907597e-5</v>
       </c>
       <c r="B99">
         <v>87121</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>4.484477400623632e-5</v>
+        <v>0.00010127915341229254</v>
       </c>
       <c r="B100">
         <v>87121</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>9.858698924958276e-5</v>
+        <v>2.79546484982518e-5</v>
       </c>
       <c r="B101">
         <v>87121</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.183719424094541e-6</v>
+        <v>4.485512923387397e-6</v>
       </c>
       <c r="B2">
         <v>69788</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4.542224083818638e-5</v>
+        <v>1.3555272814211853e-5</v>
       </c>
       <c r="B3">
         <v>69788</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.195287834954992e-5</v>
+        <v>3.855122811333151e-5</v>
       </c>
       <c r="B4">
         <v>69788</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.1737436180007042e-5</v>
+        <v>7.035547251558444e-5</v>
       </c>
       <c r="B5">
         <v>69788</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5.180324785554026e-5</v>
+        <v>6.865465038497501e-6</v>
       </c>
       <c r="B6">
         <v>69788</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3.826204112838549e-6</v>
+        <v>6.620349060557248e-6</v>
       </c>
       <c r="B7">
         <v>69788</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.6091525400865397e-5</v>
+        <v>2.0312155341622145e-5</v>
       </c>
       <c r="B8">
         <v>69788</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.499185452929782e-5</v>
+        <v>4.062884734557349e-6</v>
       </c>
       <c r="B9">
         <v>69788</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.0960519594713582e-5</v>
+        <v>0.0002797800036397684</v>
       </c>
       <c r="B10">
         <v>69788</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.6365027544841035e-5</v>
+        <v>3.834817520159402e-6</v>
       </c>
       <c r="B11">
         <v>69788</v>
@@ -18520,7 +18520,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2.661236698618549e-5</v>
+        <v>2.538309842495985e-5</v>
       </c>
       <c r="B12">
         <v>69788</v>
@@ -18531,7 +18531,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6.257230866677201</v>
+        <v>2.1978824158242488e-5</v>
       </c>
       <c r="B13">
         <v>69788</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.0132012448575005</v>
+        <v>1.4992194816479805e-5</v>
       </c>
       <c r="B14">
         <v>69788</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.00022648892289641752</v>
+        <v>6.670064108926686e-5</v>
       </c>
       <c r="B15">
         <v>69788</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3.4124455961829085e-5</v>
+        <v>5.551030963694308e-7</v>
       </c>
       <c r="B16">
         <v>69788</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4.473712576090904e-6</v>
+        <v>5.678339245464385e-5</v>
       </c>
       <c r="B17">
         <v>69788</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.013185618925984</v>
+        <v>4.850141691793784e-5</v>
       </c>
       <c r="B18">
         <v>69788</v>
@@ -18597,7 +18597,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7.443766727900093e-5</v>
+        <v>2.726383420652904e-5</v>
       </c>
       <c r="B19">
         <v>69788</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5.113266995237123e-6</v>
+        <v>7.070916764815281e-6</v>
       </c>
       <c r="B20">
         <v>69788</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.8147199999650745e-5</v>
+        <v>7.440128449325547e-6</v>
       </c>
       <c r="B21">
         <v>69788</v>
@@ -18630,7 +18630,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.2960627745422456e-5</v>
+        <v>0.00023705430602279076</v>
       </c>
       <c r="B22">
         <v>69788</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6.70760204163399e-6</v>
+        <v>1.583324194285616e-5</v>
       </c>
       <c r="B23">
         <v>69788</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>5.367109267591774e-6</v>
+        <v>0.9794693479692619</v>
       </c>
       <c r="B24">
         <v>69788</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3.1843882698540976e-5</v>
+        <v>5.762630710437884e-6</v>
       </c>
       <c r="B25">
         <v>69788</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3.1263789688255504e-5</v>
+        <v>2.130913063019361e-5</v>
       </c>
       <c r="B26">
         <v>69788</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3.665082619593473e-5</v>
+        <v>4.2681750881808385e-5</v>
       </c>
       <c r="B27">
         <v>69788</v>
@@ -18696,7 +18696,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>7.331251114960243e-6</v>
+        <v>1.6441219890477656e-5</v>
       </c>
       <c r="B28">
         <v>69788</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5.464785861703201e-6</v>
+        <v>8.58173369285129e-6</v>
       </c>
       <c r="B29">
         <v>69788</v>
@@ -18718,7 +18718,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4.0617691065164296e-5</v>
+        <v>8.74476370312391e-6</v>
       </c>
       <c r="B30">
         <v>69788</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.00018894782354290875</v>
+        <v>0.0001656351459626284</v>
       </c>
       <c r="B31">
         <v>69788</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>9.653883229142635e-7</v>
+        <v>1.4602556407953769e-5</v>
       </c>
       <c r="B32">
         <v>69788</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2.2308066688679055e-5</v>
+        <v>2.6341398271926334e-5</v>
       </c>
       <c r="B33">
         <v>69788</v>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>6.883405148275057e-6</v>
+        <v>2.8212187335433025e-5</v>
       </c>
       <c r="B34">
         <v>69788</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.0003989787555642798</v>
+        <v>4.398080085444658e-6</v>
       </c>
       <c r="B35">
         <v>69788</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8.953015384371396e-6</v>
+        <v>5.810470791305007e-5</v>
       </c>
       <c r="B36">
         <v>69788</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4.5164745198394545e-5</v>
+        <v>9.201254226611292e-6</v>
       </c>
       <c r="B37">
         <v>69788</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2.266072540699313e-5</v>
+        <v>8.650796558453791e-7</v>
       </c>
       <c r="B38">
         <v>69788</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.3411671778475711e-5</v>
+        <v>2.190209755113706e-6</v>
       </c>
       <c r="B39">
         <v>69788</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.00011193165759547201</v>
+        <v>3.932810768211404e-6</v>
       </c>
       <c r="B40">
         <v>69788</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.4138614829421962e-5</v>
+        <v>4.3695367080816564e-5</v>
       </c>
       <c r="B41">
         <v>69788</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4.7634940556618536e-5</v>
+        <v>1.2875980076192286e-5</v>
       </c>
       <c r="B42">
         <v>69788</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9.401717021931918e-5</v>
+        <v>2.7535851764034365e-5</v>
       </c>
       <c r="B43">
         <v>69788</v>
@@ -18872,7 +18872,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2.2273585492957985e-5</v>
+        <v>7.952818519364883e-5</v>
       </c>
       <c r="B44">
         <v>69788</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3.102240416160805e-6</v>
+        <v>2.3707721324484225e-5</v>
       </c>
       <c r="B45">
         <v>69788</v>
@@ -18894,7 +18894,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1.6941821480119757e-5</v>
+        <v>6.897982095224127e-6</v>
       </c>
       <c r="B46">
         <v>69788</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1.591589916134256e-5</v>
+        <v>1.1185624053167464e-5</v>
       </c>
       <c r="B47">
         <v>69788</v>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2.0790908252354076e-5</v>
+        <v>1.4910208979126553e-5</v>
       </c>
       <c r="B48">
         <v>69788</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>5.0169759304932986e-6</v>
+        <v>4.103701206831193e-5</v>
       </c>
       <c r="B49">
         <v>69788</v>
@@ -18938,7 +18938,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1.5946341710605846e-6</v>
+        <v>1.9398953525106393e-5</v>
       </c>
       <c r="B50">
         <v>69788</v>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.000289290584690629</v>
+        <v>1.0367866801047665e-6</v>
       </c>
       <c r="B51">
         <v>69788</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>5.439001960898465e-5</v>
+        <v>4.4819560237549656e-5</v>
       </c>
       <c r="B52">
         <v>69788</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>6.361800415459565e-5</v>
+        <v>2.401321470567547e-5</v>
       </c>
       <c r="B53">
         <v>69788</v>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2.081451497734441e-5</v>
+        <v>8.181852820695561e-5</v>
       </c>
       <c r="B54">
         <v>69788</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>3.5602983124296683e-6</v>
+        <v>2.060972088404896e-5</v>
       </c>
       <c r="B55">
         <v>69788</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>5.63678501537811e-5</v>
+        <v>1.880512698420503e-5</v>
       </c>
       <c r="B56">
         <v>69788</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>5.282976548002524e-5</v>
+        <v>2.0062339042294554e-6</v>
       </c>
       <c r="B57">
         <v>69788</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4.631814796408059e-5</v>
+        <v>8.978176165799331e-6</v>
       </c>
       <c r="B58">
         <v>69788</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>6.288378584436982e-5</v>
+        <v>5.517173118091277e-5</v>
       </c>
       <c r="B59">
         <v>69788</v>
@@ -19048,7 +19048,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2.729484890719592e-5</v>
+        <v>1.4926468864632184e-5</v>
       </c>
       <c r="B60">
         <v>69788</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1.7119748941138886e-5</v>
+        <v>1.928107389477407e-5</v>
       </c>
       <c r="B61">
         <v>69788</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1.459942124528668e-5</v>
+        <v>6.581521434784581e-5</v>
       </c>
       <c r="B62">
         <v>69788</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1.5452993281687158e-6</v>
+        <v>2.287470239593453e-6</v>
       </c>
       <c r="B63">
         <v>69788</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6.234099988304561e-5</v>
+        <v>8.358659675168559e-7</v>
       </c>
       <c r="B64">
         <v>69788</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2.0623954405052977e-5</v>
+        <v>7.979486573559972e-6</v>
       </c>
       <c r="B65">
         <v>69788</v>
@@ -19114,7 +19114,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>4.423476626987388e-6</v>
+        <v>4.815990587855237e-5</v>
       </c>
       <c r="B66">
         <v>69788</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1.829947993841359e-5</v>
+        <v>2.5759449619982198e-5</v>
       </c>
       <c r="B67">
         <v>69788</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>6.192426346212836e-6</v>
+        <v>5.945791558067823e-7</v>
       </c>
       <c r="B68">
         <v>69788</v>
@@ -19147,7 +19147,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>8.063651171500834e-5</v>
+        <v>4.9123216745796696e-5</v>
       </c>
       <c r="B69">
         <v>69788</v>
@@ -19158,7 +19158,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3.864305226900028e-5</v>
+        <v>2.2352289090198605</v>
       </c>
       <c r="B70">
         <v>69788</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>9.142498922777218e-5</v>
+        <v>8.669306769547468e-5</v>
       </c>
       <c r="B71">
         <v>69788</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1.7156239587398572e-5</v>
+        <v>7.837357814433573e-5</v>
       </c>
       <c r="B72">
         <v>69788</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>8.973058377746686e-6</v>
+        <v>2.7711632507983495e-5</v>
       </c>
       <c r="B73">
         <v>69788</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>4.0937433924908786e-5</v>
+        <v>3.645250058382963e-5</v>
       </c>
       <c r="B74">
         <v>69788</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2.9454552746897992e-5</v>
+        <v>9.51509787210815e-6</v>
       </c>
       <c r="B75">
         <v>69788</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3.0476166506595564e-5</v>
+        <v>2.402076671251126e-5</v>
       </c>
       <c r="B76">
         <v>69788</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.00013856842113225992</v>
+        <v>3.002433182698591e-5</v>
       </c>
       <c r="B77">
         <v>69788</v>
@@ -19246,7 +19246,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2.105720985491059e-5</v>
+        <v>5.13683023306646e-5</v>
       </c>
       <c r="B78">
         <v>69788</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2.292260502166046</v>
+        <v>2.664081030672891e-5</v>
       </c>
       <c r="B79">
         <v>69788</v>
@@ -19268,7 +19268,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>4.107294828538326e-6</v>
+        <v>5.196332913597902e-5</v>
       </c>
       <c r="B80">
         <v>69788</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1.5126500197727456e-6</v>
+        <v>5.535707455312478e-5</v>
       </c>
       <c r="B81">
         <v>69788</v>
@@ -19290,7 +19290,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>7.698316876850644e-5</v>
+        <v>1.435152075102989e-5</v>
       </c>
       <c r="B82">
         <v>69788</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.0001662521891464115</v>
+        <v>0.00018669037834352355</v>
       </c>
       <c r="B83">
         <v>69788</v>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1.6921350144110888e-6</v>
+        <v>1.7764581836860126e-5</v>
       </c>
       <c r="B84">
         <v>69788</v>
@@ -19323,7 +19323,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2.0301785513423558e-5</v>
+        <v>6.559414313501593e-5</v>
       </c>
       <c r="B85">
         <v>69788</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>6.885236630406885e-7</v>
+        <v>6.153721415750394e-5</v>
       </c>
       <c r="B86">
         <v>69788</v>
@@ -19345,7 +19345,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>5.352234296395153e-5</v>
+        <v>1.0179820015685373e-5</v>
       </c>
       <c r="B87">
         <v>69788</v>
@@ -19356,7 +19356,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>5.502814362276081e-5</v>
+        <v>6.601774527702769e-6</v>
       </c>
       <c r="B88">
         <v>69788</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1.616620530850767e-5</v>
+        <v>3.0779530637985305e-5</v>
       </c>
       <c r="B89">
         <v>69788</v>
@@ -19378,7 +19378,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.0001810166822921354</v>
+        <v>8.300387637981933e-5</v>
       </c>
       <c r="B90">
         <v>69788</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1.5749410935728965e-5</v>
+        <v>5.427295627369544e-5</v>
       </c>
       <c r="B91">
         <v>69788</v>
@@ -19400,7 +19400,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8.721733049686324e-5</v>
+        <v>7.961966142553298e-7</v>
       </c>
       <c r="B92">
         <v>69788</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1.096437438854528e-5</v>
+        <v>3.802313019799738e-5</v>
       </c>
       <c r="B93">
         <v>69788</v>
@@ -19422,7 +19422,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>3.345177265435163e-5</v>
+        <v>1.2482257202419964e-5</v>
       </c>
       <c r="B94">
         <v>69788</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1.8210196432162637e-5</v>
+        <v>8.785481904560725e-5</v>
       </c>
       <c r="B95">
         <v>69788</v>
@@ -19444,7 +19444,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1.436395975011564e-5</v>
+        <v>0.00011234723847363959</v>
       </c>
       <c r="B96">
         <v>69788</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1.5240371136183987e-5</v>
+        <v>4.0575834871556196e-5</v>
       </c>
       <c r="B97">
         <v>69788</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3.433746621018579e-5</v>
+        <v>5.3232672533000814e-5</v>
       </c>
       <c r="B98">
         <v>69788</v>
@@ -19477,7 +19477,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2.897744257945127e-6</v>
+        <v>1.1087145100245295e-5</v>
       </c>
       <c r="B99">
         <v>69788</v>
@@ -19488,7 +19488,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3.8149375281121805e-6</v>
+        <v>5.538377862686957e-5</v>
       </c>
       <c r="B100">
         <v>69788</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2.1843684252958003e-6</v>
+        <v>4.7957579168227884e-5</v>
       </c>
       <c r="B101">
         <v>69788</v>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>14996.74447681275</v>
+        <v>14804.454181269162</v>
       </c>
       <c r="B2">
         <v>201736</v>
@@ -19545,7 +19545,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>14953.949664417254</v>
+        <v>14706.131569191346</v>
       </c>
       <c r="B3">
         <v>201736</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>15478.617018885196</v>
+        <v>15261.048239650561</v>
       </c>
       <c r="B4">
         <v>201736</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>14825.856766766647</v>
+        <v>14029.421236141648</v>
       </c>
       <c r="B5">
         <v>201736</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>14402.211724133269</v>
+        <v>13523.338983486366</v>
       </c>
       <c r="B6">
         <v>201736</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>13800.031143386885</v>
+        <v>14590.314329160854</v>
       </c>
       <c r="B7">
         <v>201736</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>14567.603737053769</v>
+        <v>14948.247064077925</v>
       </c>
       <c r="B8">
         <v>201736</v>
@@ -19611,7 +19611,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>14437.692939921935</v>
+        <v>14648.887805735809</v>
       </c>
       <c r="B9">
         <v>201736</v>
@@ -19622,7 +19622,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>15225.441812666919</v>
+        <v>15183.679289619537</v>
       </c>
       <c r="B10">
         <v>201736</v>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>15029.736413326866</v>
+        <v>15273.025516625352</v>
       </c>
       <c r="B11">
         <v>201736</v>
@@ -19644,7 +19644,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15374.968102163866</v>
+        <v>14272.996009237038</v>
       </c>
       <c r="B12">
         <v>201736</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>15350.804964008643</v>
+        <v>14669.310472353598</v>
       </c>
       <c r="B13">
         <v>201736</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>15119.143089418369</v>
+        <v>15448.304038320504</v>
       </c>
       <c r="B14">
         <v>201736</v>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>14803.636765256622</v>
+        <v>14672.33011547217</v>
       </c>
       <c r="B15">
         <v>201736</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14831.204509557643</v>
+        <v>15701.496303765265</v>
       </c>
       <c r="B16">
         <v>201736</v>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>14831.32365262455</v>
+        <v>14684.54790729159</v>
       </c>
       <c r="B17">
         <v>201736</v>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>14915.131308139153</v>
+        <v>15071.741488289952</v>
       </c>
       <c r="B18">
         <v>201736</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15127.51435041633</v>
+        <v>15076.86776028023</v>
       </c>
       <c r="B19">
         <v>201736</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>15171.82299939863</v>
+        <v>15631.014458644531</v>
       </c>
       <c r="B20">
         <v>201736</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>14599.913369739243</v>
+        <v>14712.605865138717</v>
       </c>
       <c r="B21">
         <v>201736</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>15392.5610736106</v>
+        <v>14567.335896871073</v>
       </c>
       <c r="B22">
         <v>201736</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>14849.419252846592</v>
+        <v>14756.38660355578</v>
       </c>
       <c r="B23">
         <v>201736</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>14372.003259074105</v>
+        <v>15437.301284527224</v>
       </c>
       <c r="B24">
         <v>201736</v>
@@ -19787,7 +19787,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>15169.764372570431</v>
+        <v>15191.341086834176</v>
       </c>
       <c r="B25">
         <v>201736</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>14543.063548862097</v>
+        <v>15219.548045457488</v>
       </c>
       <c r="B26">
         <v>201736</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>15131.167139592184</v>
+        <v>14565.942891438974</v>
       </c>
       <c r="B27">
         <v>201736</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>14103.701053730234</v>
+        <v>15369.477935513201</v>
       </c>
       <c r="B28">
         <v>201736</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>14694.745179055704</v>
+        <v>15073.322720956097</v>
       </c>
       <c r="B29">
         <v>201736</v>
@@ -19842,7 +19842,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>14705.674965668417</v>
+        <v>14083.31231318952</v>
       </c>
       <c r="B30">
         <v>201736</v>
@@ -19853,7 +19853,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>14998.722000004487</v>
+        <v>14963.939401362311</v>
       </c>
       <c r="B31">
         <v>201736</v>
@@ -19864,7 +19864,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>14890.0194183817</v>
+        <v>14695.691337041846</v>
       </c>
       <c r="B32">
         <v>201736</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>14883.612353314269</v>
+        <v>15132.59252256151</v>
       </c>
       <c r="B33">
         <v>201736</v>
@@ -19886,7 +19886,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>14972.304360827018</v>
+        <v>15414.024920048072</v>
       </c>
       <c r="B34">
         <v>201736</v>
@@ -19897,7 +19897,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>14996.5717214</v>
+        <v>14101.519966366828</v>
       </c>
       <c r="B35">
         <v>201736</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>14812.230754335076</v>
+        <v>14510.185081413416</v>
       </c>
       <c r="B36">
         <v>201736</v>
@@ -19919,7 +19919,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>15614.037028255794</v>
+        <v>13858.8624211689</v>
       </c>
       <c r="B37">
         <v>201736</v>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>15270.054617657092</v>
+        <v>14507.334303641286</v>
       </c>
       <c r="B38">
         <v>201736</v>
@@ -19941,7 +19941,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>14680.41404369179</v>
+        <v>14628.999724050824</v>
       </c>
       <c r="B39">
         <v>201736</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>15045.566299754042</v>
+        <v>14872.17822015981</v>
       </c>
       <c r="B40">
         <v>201736</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>14846.00186389095</v>
+        <v>14854.499215743179</v>
       </c>
       <c r="B41">
         <v>201736</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>15060.577111400247</v>
+        <v>14756.982530233085</v>
       </c>
       <c r="B42">
         <v>201736</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>14739.015188000254</v>
+        <v>14735.242449482386</v>
       </c>
       <c r="B43">
         <v>201736</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>15094.858058833002</v>
+        <v>15126.20260084298</v>
       </c>
       <c r="B44">
         <v>201736</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>15221.527836543439</v>
+        <v>14085.836893644813</v>
       </c>
       <c r="B45">
         <v>201736</v>
@@ -20018,7 +20018,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>14824.99223666864</v>
+        <v>15207.965685077228</v>
       </c>
       <c r="B46">
         <v>201736</v>
@@ -20029,7 +20029,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>14545.360479514837</v>
+        <v>14830.551708965828</v>
       </c>
       <c r="B47">
         <v>201736</v>
@@ -20040,7 +20040,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>14858.647961723558</v>
+        <v>15462.84049584166</v>
       </c>
       <c r="B48">
         <v>201736</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>14633.839816089985</v>
+        <v>14005.627217608571</v>
       </c>
       <c r="B49">
         <v>201736</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>15472.29696318441</v>
+        <v>14640.144611125994</v>
       </c>
       <c r="B50">
         <v>201736</v>
@@ -20073,7 +20073,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>15287.70870493137</v>
+        <v>14125.2991865325</v>
       </c>
       <c r="B51">
         <v>201736</v>
@@ -20084,7 +20084,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>14007.009778588426</v>
+        <v>15152.390950546636</v>
       </c>
       <c r="B52">
         <v>201736</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>14819.312569771859</v>
+        <v>15334.244807220146</v>
       </c>
       <c r="B53">
         <v>201736</v>
@@ -20106,7 +20106,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>14624.456372404253</v>
+        <v>15441.999210614475</v>
       </c>
       <c r="B54">
         <v>201736</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>14748.156168180396</v>
+        <v>14078.118790435265</v>
       </c>
       <c r="B55">
         <v>201736</v>
@@ -20128,7 +20128,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>14877.128745540209</v>
+        <v>14414.72112562606</v>
       </c>
       <c r="B56">
         <v>201736</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>15495.878524909695</v>
+        <v>14232.196025699264</v>
       </c>
       <c r="B57">
         <v>201736</v>
@@ -20150,7 +20150,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>14949.186105312849</v>
+        <v>14460.760676545482</v>
       </c>
       <c r="B58">
         <v>201736</v>
@@ -20161,7 +20161,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15773.2566795801</v>
+        <v>14980.102077581418</v>
       </c>
       <c r="B59">
         <v>201736</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>14121.402405965651</v>
+        <v>15119.342956504615</v>
       </c>
       <c r="B60">
         <v>201736</v>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>14856.195036111325</v>
+        <v>13920.494310465692</v>
       </c>
       <c r="B61">
         <v>201736</v>
@@ -20194,7 +20194,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>15254.29982131378</v>
+        <v>15247.05910823036</v>
       </c>
       <c r="B62">
         <v>201736</v>
@@ -20205,7 +20205,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>14641.618063897873</v>
+        <v>14088.631905020156</v>
       </c>
       <c r="B63">
         <v>201736</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>14850.714165888896</v>
+        <v>15037.149441902755</v>
       </c>
       <c r="B64">
         <v>201736</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>15138.911466866542</v>
+        <v>14998.058017987438</v>
       </c>
       <c r="B65">
         <v>201736</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>14889.569316580215</v>
+        <v>14288.386353259053</v>
       </c>
       <c r="B66">
         <v>201736</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>14943.967408383474</v>
+        <v>14374.696556734361</v>
       </c>
       <c r="B67">
         <v>201736</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>14205.197701135676</v>
+        <v>14506.446052826674</v>
       </c>
       <c r="B68">
         <v>201736</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>15293.677708391278</v>
+        <v>14533.52362328695</v>
       </c>
       <c r="B69">
         <v>201736</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>14273.997730283128</v>
+        <v>15397.505149537767</v>
       </c>
       <c r="B70">
         <v>201736</v>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>15200.051929201583</v>
+        <v>14735.220695101843</v>
       </c>
       <c r="B71">
         <v>201736</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>16021.788182838638</v>
+        <v>14924.631706085547</v>
       </c>
       <c r="B72">
         <v>201736</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>15059.895301292025</v>
+        <v>15270.194015126011</v>
       </c>
       <c r="B73">
         <v>201736</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>14900.494243754125</v>
+        <v>15244.270045957821</v>
       </c>
       <c r="B74">
         <v>201736</v>
@@ -20337,7 +20337,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>15062.077997117076</v>
+        <v>15020.222088469149</v>
       </c>
       <c r="B75">
         <v>201736</v>
@@ -20348,7 +20348,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>14709.442674493306</v>
+        <v>15266.787647479809</v>
       </c>
       <c r="B76">
         <v>201736</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>15092.225190703262</v>
+        <v>15167.54478169032</v>
       </c>
       <c r="B77">
         <v>201736</v>
@@ -20370,7 +20370,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>15291.851630020115</v>
+        <v>14798.051492845534</v>
       </c>
       <c r="B78">
         <v>201736</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>15263.560044022874</v>
+        <v>15265.59912647732</v>
       </c>
       <c r="B79">
         <v>201736</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>12261.73303533452</v>
+        <v>14180.62992081379</v>
       </c>
       <c r="B80">
         <v>201736</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>15373.146283333184</v>
+        <v>14777.787101595879</v>
       </c>
       <c r="B81">
         <v>201736</v>
@@ -20414,7 +20414,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>13525.137886711978</v>
+        <v>15550.917452490527</v>
       </c>
       <c r="B82">
         <v>201736</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>14648.279640273664</v>
+        <v>15671.61071383525</v>
       </c>
       <c r="B83">
         <v>201736</v>
@@ -20436,7 +20436,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>14537.884545032915</v>
+        <v>14463.713509230207</v>
       </c>
       <c r="B84">
         <v>201736</v>
@@ -20447,7 +20447,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>14609.475388259205</v>
+        <v>14742.246355308802</v>
       </c>
       <c r="B85">
         <v>201736</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>15494.178735701222</v>
+        <v>15311.530746617582</v>
       </c>
       <c r="B86">
         <v>201736</v>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>14383.036567105977</v>
+        <v>15077.8268407758</v>
       </c>
       <c r="B87">
         <v>201736</v>
@@ -20480,7 +20480,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>15040.162295741558</v>
+        <v>15567.434663546093</v>
       </c>
       <c r="B88">
         <v>201736</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>14672.301630661865</v>
+        <v>14664.213044314114</v>
       </c>
       <c r="B89">
         <v>201736</v>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>14983.346012761802</v>
+        <v>14411.12688820649</v>
       </c>
       <c r="B90">
         <v>201736</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>14396.88132875002</v>
+        <v>13964.346635779595</v>
       </c>
       <c r="B91">
         <v>201736</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>15408.579706389512</v>
+        <v>14802.611186806002</v>
       </c>
       <c r="B92">
         <v>201736</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>15204.448318907327</v>
+        <v>14598.85965974128</v>
       </c>
       <c r="B93">
         <v>201736</v>
@@ -20546,7 +20546,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>14902.374901316061</v>
+        <v>14689.241290180496</v>
       </c>
       <c r="B94">
         <v>201736</v>
@@ -20557,7 +20557,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>15302.225606944254</v>
+        <v>14382.382823580789</v>
       </c>
       <c r="B95">
         <v>201736</v>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>14542.270976100881</v>
+        <v>14045.108936304528</v>
       </c>
       <c r="B96">
         <v>201736</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>14575.25340532456</v>
+        <v>14485.102293787288</v>
       </c>
       <c r="B97">
         <v>201736</v>
@@ -20590,7 +20590,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>15229.329501880942</v>
+        <v>14676.91727922162</v>
       </c>
       <c r="B98">
         <v>201736</v>
@@ -20601,7 +20601,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>15080.912718452257</v>
+        <v>15029.393671917089</v>
       </c>
       <c r="B99">
         <v>201736</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>14740.63902491433</v>
+        <v>15207.305493589613</v>
       </c>
       <c r="B100">
         <v>201736</v>
@@ -20623,7 +20623,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>15188.061219277814</v>
+        <v>14702.596408742076</v>
       </c>
       <c r="B101">
         <v>201736</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9742.579402584583</v>
+        <v>22267.15880025644</v>
       </c>
       <c r="B2">
         <v>8000000</v>
@@ -20669,7 +20669,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6738.567503434606</v>
+        <v>11115.275727330241</v>
       </c>
       <c r="B3">
         <v>8000000</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8810.061766915256</v>
+        <v>8796.252489880659</v>
       </c>
       <c r="B4">
         <v>8000000</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4629.848057265393</v>
+        <v>6906.108331338037</v>
       </c>
       <c r="B5">
         <v>8000000</v>
@@ -20702,7 +20702,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>10305.58450671495</v>
+        <v>10842.482768538874</v>
       </c>
       <c r="B6">
         <v>8000000</v>
@@ -20713,7 +20713,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>20015.458707316313</v>
+        <v>4612.3262128899805</v>
       </c>
       <c r="B7">
         <v>8000000</v>
@@ -20724,7 +20724,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5060.3892780719325</v>
+        <v>21140.618250215426</v>
       </c>
       <c r="B8">
         <v>8000000</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>12463.124007247156</v>
+        <v>25299.217381280912</v>
       </c>
       <c r="B9">
         <v>8000000</v>
@@ -20746,7 +20746,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>11364.791573106311</v>
+        <v>24963.050716713304</v>
       </c>
       <c r="B10">
         <v>8000000</v>
@@ -20757,7 +20757,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>19697.37976427056</v>
+        <v>15852.311424139247</v>
       </c>
       <c r="B11">
         <v>8000000</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>11950.375933806761</v>
+        <v>15195.923768714652</v>
       </c>
       <c r="B12">
         <v>8000000</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>24005.727382401266</v>
+        <v>3295.1822354150936</v>
       </c>
       <c r="B13">
         <v>8000000</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>22464.196854529277</v>
+        <v>23545.261832066848</v>
       </c>
       <c r="B14">
         <v>8000000</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3497.7184915319085</v>
+        <v>19855.626224824227</v>
       </c>
       <c r="B15">
         <v>8000000</v>
@@ -20812,7 +20812,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3246.1758640632033</v>
+        <v>5359.638960038312</v>
       </c>
       <c r="B16">
         <v>8000000</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>9884.996701487573</v>
+        <v>23539.411932810002</v>
       </c>
       <c r="B17">
         <v>8000000</v>
@@ -20834,7 +20834,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>6857.885732626542</v>
+        <v>33683.14894216694</v>
       </c>
       <c r="B18">
         <v>8000000</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>8269.203719736077</v>
+        <v>8273.051308322232</v>
       </c>
       <c r="B19">
         <v>8000000</v>
@@ -20856,7 +20856,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>16106.977217083797</v>
+        <v>20412.642353671603</v>
       </c>
       <c r="B20">
         <v>8000000</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>7471.156629927456</v>
+        <v>31092.6145734748</v>
       </c>
       <c r="B21">
         <v>8000000</v>
@@ -20878,7 +20878,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>14293.35106193577</v>
+        <v>6805.665311447345</v>
       </c>
       <c r="B22">
         <v>8000000</v>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>9147.769215305801</v>
+        <v>24224.62228723202</v>
       </c>
       <c r="B23">
         <v>8000000</v>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>57474.05377500551</v>
+        <v>11169.59105191403</v>
       </c>
       <c r="B24">
         <v>8000000</v>
@@ -20911,7 +20911,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>20446.525817513044</v>
+        <v>5979.212446938269</v>
       </c>
       <c r="B25">
         <v>8000000</v>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>30707.69229208975</v>
+        <v>7925.148708511377</v>
       </c>
       <c r="B26">
         <v>8000000</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2962.1786344125867</v>
+        <v>9338.097881671041</v>
       </c>
       <c r="B27">
         <v>8000000</v>
@@ -20944,7 +20944,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>8477.91275694035</v>
+        <v>14550.928307778668</v>
       </c>
       <c r="B28">
         <v>8000000</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>22971.793364991492</v>
+        <v>19772.18882201548</v>
       </c>
       <c r="B29">
         <v>8000000</v>
@@ -20966,7 +20966,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>15807.283987506991</v>
+        <v>36192.89576434798</v>
       </c>
       <c r="B30">
         <v>8000000</v>
@@ -20977,7 +20977,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>18983.399559909987</v>
+        <v>24362.268433605394</v>
       </c>
       <c r="B31">
         <v>8000000</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>16736.76606663072</v>
+        <v>612.5577567704022</v>
       </c>
       <c r="B32">
         <v>8000000</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>28498.243775462528</v>
+        <v>4061.1130063543096</v>
       </c>
       <c r="B33">
         <v>8000000</v>
@@ -21010,7 +21010,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>13175.479422883596</v>
+        <v>2883.5135728986934</v>
       </c>
       <c r="B34">
         <v>8000000</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8365.018105154391</v>
+        <v>5011.884158405475</v>
       </c>
       <c r="B35">
         <v>8000000</v>
@@ -21032,7 +21032,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8588.50192546635</v>
+        <v>11579.183941815048</v>
       </c>
       <c r="B36">
         <v>8000000</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>23503.59604586174</v>
+        <v>10468.018322311342</v>
       </c>
       <c r="B37">
         <v>8000000</v>
@@ -21054,7 +21054,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>12650.210501242895</v>
+        <v>8696.752658681944</v>
       </c>
       <c r="B38">
         <v>8000000</v>
@@ -21065,7 +21065,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5240.981556069106</v>
+        <v>29499.61060241767</v>
       </c>
       <c r="B39">
         <v>8000000</v>
@@ -21076,7 +21076,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>24253.108365430846</v>
+        <v>15244.767593511788</v>
       </c>
       <c r="B40">
         <v>8000000</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>6542.93920598831</v>
+        <v>14593.248841513996</v>
       </c>
       <c r="B41">
         <v>8000000</v>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>24339.523814084736</v>
+        <v>8242.717699646484</v>
       </c>
       <c r="B42">
         <v>8000000</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1246.2110659331083</v>
+        <v>29635.391280876996</v>
       </c>
       <c r="B43">
         <v>8000000</v>
@@ -21120,7 +21120,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1202.9467760547996</v>
+        <v>39861.879998538876</v>
       </c>
       <c r="B44">
         <v>8000000</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>16297.524372484477</v>
+        <v>17944.371632641298</v>
       </c>
       <c r="B45">
         <v>8000000</v>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>22092.254368801834</v>
+        <v>44539.23971074028</v>
       </c>
       <c r="B46">
         <v>8000000</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>12996.52215037588</v>
+        <v>4487.373861108441</v>
       </c>
       <c r="B47">
         <v>8000000</v>
@@ -21164,7 +21164,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>9347.82440636796</v>
+        <v>16158.646814519365</v>
       </c>
       <c r="B48">
         <v>8000000</v>
@@ -21175,7 +21175,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>17154.525217121176</v>
+        <v>15280.013589200564</v>
       </c>
       <c r="B49">
         <v>8000000</v>
@@ -21186,7 +21186,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>13825.047471249476</v>
+        <v>9306.471223311499</v>
       </c>
       <c r="B50">
         <v>8000000</v>
@@ -21197,7 +21197,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3009.3571872059256</v>
+        <v>30936.43722514849</v>
       </c>
       <c r="B51">
         <v>8000000</v>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>13486.983228058089</v>
+        <v>3556.017125613056</v>
       </c>
       <c r="B52">
         <v>8000000</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>13622.968148146989</v>
+        <v>18380.657461905488</v>
       </c>
       <c r="B53">
         <v>8000000</v>
@@ -21230,7 +21230,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>38532.13342111651</v>
+        <v>17202.213408569864</v>
       </c>
       <c r="B54">
         <v>8000000</v>
@@ -21241,7 +21241,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8991.368103659013</v>
+        <v>12938.174098428339</v>
       </c>
       <c r="B55">
         <v>8000000</v>
@@ -21252,7 +21252,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>7293.445531626698</v>
+        <v>18486.94434775348</v>
       </c>
       <c r="B56">
         <v>8000000</v>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>24444.47000677907</v>
+        <v>12263.59466135595</v>
       </c>
       <c r="B57">
         <v>8000000</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1922.7477051345631</v>
+        <v>3846.3747701812536</v>
       </c>
       <c r="B58">
         <v>8000000</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>6940.771150295623</v>
+        <v>14758.811968328315</v>
       </c>
       <c r="B59">
         <v>8000000</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>13895.920469919685</v>
+        <v>12006.607260370161</v>
       </c>
       <c r="B60">
         <v>8000000</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>13567.9106513788</v>
+        <v>15091.655447201221</v>
       </c>
       <c r="B61">
         <v>8000000</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>14398.922827680712</v>
+        <v>16639.723487691488</v>
       </c>
       <c r="B62">
         <v>8000000</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>18726.80934301653</v>
+        <v>14464.181235841126</v>
       </c>
       <c r="B63">
         <v>8000000</v>
@@ -21340,7 +21340,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6614.548144795466</v>
+        <v>19862.103370293975</v>
       </c>
       <c r="B64">
         <v>8000000</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>24816.566495577106</v>
+        <v>15596.484940721188</v>
       </c>
       <c r="B65">
         <v>8000000</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>15577.852367193089</v>
+        <v>12310.191293200944</v>
       </c>
       <c r="B66">
         <v>8000000</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>15125.902276837442</v>
+        <v>9305.257936941693</v>
       </c>
       <c r="B67">
         <v>8000000</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>9172.676168132108</v>
+        <v>9665.270328572951</v>
       </c>
       <c r="B68">
         <v>8000000</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>4866.387916444801</v>
+        <v>3269.644983669743</v>
       </c>
       <c r="B69">
         <v>8000000</v>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>21480.99595371582</v>
+        <v>14804.689382821554</v>
       </c>
       <c r="B70">
         <v>8000000</v>
@@ -21417,7 +21417,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>9989.988344120793</v>
+        <v>14636.739217184717</v>
       </c>
       <c r="B71">
         <v>8000000</v>
@@ -21428,7 +21428,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>13741.624789022026</v>
+        <v>14499.678023491055</v>
       </c>
       <c r="B72">
         <v>8000000</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>14395.558655875968</v>
+        <v>17369.126533351082</v>
       </c>
       <c r="B73">
         <v>8000000</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>21064.83338630324</v>
+        <v>4974.9516784651205</v>
       </c>
       <c r="B74">
         <v>8000000</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>10649.578016839689</v>
+        <v>19754.758678339495</v>
       </c>
       <c r="B75">
         <v>8000000</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>13539.447196774767</v>
+        <v>11398.686410367955</v>
       </c>
       <c r="B76">
         <v>8000000</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>22247.68949316311</v>
+        <v>26595.10882731265</v>
       </c>
       <c r="B77">
         <v>8000000</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>16289.660345756565</v>
+        <v>13228.4708130972</v>
       </c>
       <c r="B78">
         <v>8000000</v>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1740.8740637730807</v>
+        <v>7817.613031485584</v>
       </c>
       <c r="B79">
         <v>8000000</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>13597.294111341238</v>
+        <v>9290.811137355398</v>
       </c>
       <c r="B80">
         <v>8000000</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>22807.446920029604</v>
+        <v>17236.545360155287</v>
       </c>
       <c r="B81">
         <v>8000000</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>4017.0404738197103</v>
+        <v>23531.865896347997</v>
       </c>
       <c r="B82">
         <v>8000000</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>16999.077248288842</v>
+        <v>9121.534294918645</v>
       </c>
       <c r="B83">
         <v>8000000</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>13266.965908386279</v>
+        <v>11337.01340029831</v>
       </c>
       <c r="B84">
         <v>8000000</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>14491.651380582945</v>
+        <v>25498.12007051939</v>
       </c>
       <c r="B85">
         <v>8000000</v>
@@ -21582,7 +21582,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>17984.650424921478</v>
+        <v>3884.610353224911</v>
       </c>
       <c r="B86">
         <v>8000000</v>
@@ -21593,7 +21593,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>30298.281990086543</v>
+        <v>20814.94061877369</v>
       </c>
       <c r="B87">
         <v>8000000</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1703.7741837501526</v>
+        <v>3954.697709470056</v>
       </c>
       <c r="B88">
         <v>8000000</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>20879.911439141957</v>
+        <v>5472.955745489337</v>
       </c>
       <c r="B89">
         <v>8000000</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>4661.063088268042</v>
+        <v>51436.94319134718</v>
       </c>
       <c r="B90">
         <v>8000000</v>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3162.7497318806127</v>
+        <v>14583.88251642324</v>
       </c>
       <c r="B91">
         <v>8000000</v>
@@ -21648,7 +21648,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>25752.28860543057</v>
+        <v>13587.714844826725</v>
       </c>
       <c r="B92">
         <v>8000000</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>25881.61760330439</v>
+        <v>15706.907283514272</v>
       </c>
       <c r="B93">
         <v>8000000</v>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>25585.55221539043</v>
+        <v>9879.916953023523</v>
       </c>
       <c r="B94">
         <v>8000000</v>
@@ -21681,7 +21681,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>14163.159839734551</v>
+        <v>26486.207515405957</v>
       </c>
       <c r="B95">
         <v>8000000</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>12768.693623344647</v>
+        <v>7339.635528382845</v>
       </c>
       <c r="B96">
         <v>8000000</v>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5052.288406745065</v>
+        <v>20504.323251887778</v>
       </c>
       <c r="B97">
         <v>8000000</v>
@@ -21714,7 +21714,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>17465.177540120378</v>
+        <v>14825.483765358222</v>
       </c>
       <c r="B98">
         <v>8000000</v>
@@ -21725,7 +21725,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>12183.922125915415</v>
+        <v>2519.8924134084955</v>
       </c>
       <c r="B99">
         <v>8000000</v>
@@ -21736,7 +21736,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>12998.740510943346</v>
+        <v>9382.720103908796</v>
       </c>
       <c r="B100">
         <v>8000000</v>
@@ -21747,7 +21747,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>8506.71500662947</v>
+        <v>17183.555820382084</v>
       </c>
       <c r="B101">
         <v>8000000</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.0037635536617637647</v>
+        <v>0.009986449281913033</v>
       </c>
       <c r="B2">
         <v>353418</v>
@@ -21793,7 +21793,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.009402383952779156</v>
+        <v>0.0036806371397333977</v>
       </c>
       <c r="B3">
         <v>353418</v>
@@ -21804,7 +21804,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0038368095936692787</v>
+        <v>0.0008429474160352089</v>
       </c>
       <c r="B4">
         <v>353418</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.0008309969980931774</v>
+        <v>0.006808805473597495</v>
       </c>
       <c r="B5">
         <v>353418</v>
@@ -21826,7 +21826,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0020333645837068122</v>
+        <v>0.0012736950586679002</v>
       </c>
       <c r="B6">
         <v>353418</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.00859935348340444</v>
+        <v>0.00113214591060452</v>
       </c>
       <c r="B7">
         <v>353418</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.003918624788803092</v>
+        <v>0.0024428998440722484</v>
       </c>
       <c r="B8">
         <v>353418</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.006739973559092252</v>
+        <v>0.004393308151984343</v>
       </c>
       <c r="B9">
         <v>353418</v>
@@ -21870,7 +21870,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.005192359018150411</v>
+        <v>0.0024709156759888835</v>
       </c>
       <c r="B10">
         <v>353418</v>
@@ -21881,7 +21881,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0015162499230886783</v>
+        <v>0.006289345366821557</v>
       </c>
       <c r="B11">
         <v>353418</v>
@@ -21892,7 +21892,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.014938569584312708</v>
+        <v>0.0021744623919523532</v>
       </c>
       <c r="B12">
         <v>353418</v>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.0007633068470017105</v>
+        <v>0.009445855429275198</v>
       </c>
       <c r="B13">
         <v>353418</v>
@@ -21914,7 +21914,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.0015005488137955544</v>
+        <v>0.0005510222313854083</v>
       </c>
       <c r="B14">
         <v>353418</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0684755821325147</v>
+        <v>0.005760179935583899</v>
       </c>
       <c r="B15">
         <v>353418</v>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0031450800536307914</v>
+        <v>0.0059658296936387755</v>
       </c>
       <c r="B16">
         <v>353418</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.002742496828289099</v>
+        <v>0.004789672210792383</v>
       </c>
       <c r="B17">
         <v>353418</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.00719622673096274</v>
+        <v>0.008589985606234517</v>
       </c>
       <c r="B18">
         <v>353418</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.012398079919626505</v>
+        <v>0.02504870904634479</v>
       </c>
       <c r="B19">
         <v>353418</v>
@@ -21980,7 +21980,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.005395396516434563</v>
+        <v>0.012263637089176412</v>
       </c>
       <c r="B20">
         <v>353418</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.002925120729996449</v>
+        <v>0.004871414927052406</v>
       </c>
       <c r="B21">
         <v>353418</v>
@@ -22002,7 +22002,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.002355826308568868</v>
+        <v>0.0032432442170390267</v>
       </c>
       <c r="B22">
         <v>353418</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.014890108642924603</v>
+        <v>0.0016849730026140559</v>
       </c>
       <c r="B23">
         <v>353418</v>
@@ -22024,7 +22024,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.002540281491384771</v>
+        <v>0.0011729476937098963</v>
       </c>
       <c r="B24">
         <v>353418</v>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.009672655305245798</v>
+        <v>0.00538476315334955</v>
       </c>
       <c r="B25">
         <v>353418</v>
@@ -22046,7 +22046,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.002899124697499638</v>
+        <v>0.007431664836416994</v>
       </c>
       <c r="B26">
         <v>353418</v>
@@ -22057,7 +22057,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.0050872597049023615</v>
+        <v>0.003484895471910089</v>
       </c>
       <c r="B27">
         <v>353418</v>
@@ -22068,7 +22068,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.005878471632395825</v>
+        <v>0.003444486740041432</v>
       </c>
       <c r="B28">
         <v>353418</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.004375041875196164</v>
+        <v>0.029443127795869065</v>
       </c>
       <c r="B29">
         <v>353418</v>
@@ -22090,7 +22090,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.028080612351579926</v>
+        <v>0.004711355421594268</v>
       </c>
       <c r="B30">
         <v>353418</v>
@@ -22101,7 +22101,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.010382875756382842</v>
+        <v>0.005353755433377737</v>
       </c>
       <c r="B31">
         <v>353418</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.001680340230333225</v>
+        <v>0.003153261138776707</v>
       </c>
       <c r="B32">
         <v>353418</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.012476482712169067</v>
+        <v>0.006072741866525901</v>
       </c>
       <c r="B33">
         <v>353418</v>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.0018087653768601767</v>
+        <v>0.008839129281210306</v>
       </c>
       <c r="B34">
         <v>353418</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.004509250519060345</v>
+        <v>0.00801887145167699</v>
       </c>
       <c r="B35">
         <v>353418</v>
@@ -22156,7 +22156,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.016488208217992347</v>
+        <v>0.02308908591327582</v>
       </c>
       <c r="B36">
         <v>353418</v>
@@ -22167,7 +22167,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.00402861500560735</v>
+        <v>0.0017506356856591236</v>
       </c>
       <c r="B37">
         <v>353418</v>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.008972664960252489</v>
+        <v>0.0026695763616369494</v>
       </c>
       <c r="B38">
         <v>353418</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.00960073968531269</v>
+        <v>0.005793186464436789</v>
       </c>
       <c r="B39">
         <v>353418</v>
@@ -22200,7 +22200,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.007817103384846579</v>
+        <v>0.013362322000222818</v>
       </c>
       <c r="B40">
         <v>353418</v>
@@ -22211,7 +22211,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0014247145206585966</v>
+        <v>0.003944045041254707</v>
       </c>
       <c r="B41">
         <v>353418</v>
@@ -22222,7 +22222,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.005258575349235801</v>
+        <v>0.0005312434701519321</v>
       </c>
       <c r="B42">
         <v>353418</v>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.009741489099937502</v>
+        <v>0.003992805778089792</v>
       </c>
       <c r="B43">
         <v>353418</v>
@@ -22244,7 +22244,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.009203296329086789</v>
+        <v>0.0025023646372498176</v>
       </c>
       <c r="B44">
         <v>353418</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.0018637847137668703</v>
+        <v>0.007243616867269339</v>
       </c>
       <c r="B45">
         <v>353418</v>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.007865564891056314</v>
+        <v>0.003625383205938505</v>
       </c>
       <c r="B46">
         <v>353418</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.007584940123992915</v>
+        <v>0.006388288175691944</v>
       </c>
       <c r="B47">
         <v>353418</v>
@@ -22288,7 +22288,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.0036249995309768487</v>
+        <v>0.004828167096402158</v>
       </c>
       <c r="B48">
         <v>353418</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.005598845183780741</v>
+        <v>0.0014441689920532605</v>
       </c>
       <c r="B49">
         <v>353418</v>
@@ -22310,7 +22310,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.006913891554497363</v>
+        <v>0.002848936346268197</v>
       </c>
       <c r="B50">
         <v>353418</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.001287174420888283</v>
+        <v>0.006052727096838091</v>
       </c>
       <c r="B51">
         <v>353418</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.005896131304778085</v>
+        <v>0.008379972172858392</v>
       </c>
       <c r="B52">
         <v>353418</v>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.005547874501491222</v>
+        <v>0.008913130485330307</v>
       </c>
       <c r="B53">
         <v>353418</v>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.003932372620769892</v>
+        <v>0.005946267978517528</v>
       </c>
       <c r="B54">
         <v>353418</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.0063793664415806445</v>
+        <v>0.0014862254592755354</v>
       </c>
       <c r="B55">
         <v>353418</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.002642608119195106</v>
+        <v>0.005698399815337404</v>
       </c>
       <c r="B56">
         <v>353418</v>
@@ -22387,7 +22387,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.0014243396675346282</v>
+        <v>0.021718983081651218</v>
       </c>
       <c r="B57">
         <v>353418</v>
@@ -22398,7 +22398,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.0025071265354153854</v>
+        <v>0.005522838556118688</v>
       </c>
       <c r="B58">
         <v>353418</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.0051383194303759655</v>
+        <v>0.0064270801838837155</v>
       </c>
       <c r="B59">
         <v>353418</v>
@@ -22420,7 +22420,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.009726511235014607</v>
+        <v>0.0035826008631951295</v>
       </c>
       <c r="B60">
         <v>353418</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.03343448520409692</v>
+        <v>0.03710792327312806</v>
       </c>
       <c r="B61">
         <v>353418</v>
@@ -22442,7 +22442,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.004372700891052427</v>
+        <v>0.0020979237040338592</v>
       </c>
       <c r="B62">
         <v>353418</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.00489691268590335</v>
+        <v>0.053304896590839465</v>
       </c>
       <c r="B63">
         <v>353418</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.0030157776959670334</v>
+        <v>0.0010956250639906247</v>
       </c>
       <c r="B64">
         <v>353418</v>
@@ -22475,7 +22475,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.006101202027224783</v>
+        <v>0.019956058231109262</v>
       </c>
       <c r="B65">
         <v>353418</v>
@@ -22486,7 +22486,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.01093842926344726</v>
+        <v>0.007180242491948451</v>
       </c>
       <c r="B66">
         <v>353418</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.009524291496985476</v>
+        <v>0.004750488166540389</v>
       </c>
       <c r="B67">
         <v>353418</v>
@@ -22508,7 +22508,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.02796826224072808</v>
+        <v>0.006022200689618203</v>
       </c>
       <c r="B68">
         <v>353418</v>
@@ -22519,7 +22519,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.004899608233959568</v>
+        <v>0.00753572512327807</v>
       </c>
       <c r="B69">
         <v>353418</v>
@@ -22530,7 +22530,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.0023221129283157197</v>
+        <v>0.007479257512921609</v>
       </c>
       <c r="B70">
         <v>353418</v>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.0017912758490454196</v>
+        <v>0.013294231695931833</v>
       </c>
       <c r="B71">
         <v>353418</v>
@@ -22552,7 +22552,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.0018267883390986996</v>
+        <v>0.00870638872383327</v>
       </c>
       <c r="B72">
         <v>353418</v>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.0010766786482838795</v>
+        <v>0.0006853748132859552</v>
       </c>
       <c r="B73">
         <v>353418</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.02162356245391707</v>
+        <v>0.01760641600230025</v>
       </c>
       <c r="B74">
         <v>353418</v>
@@ -22585,7 +22585,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.00684946362740179</v>
+        <v>0.015177458339326337</v>
       </c>
       <c r="B75">
         <v>353418</v>
@@ -22596,7 +22596,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.012165610613371746</v>
+        <v>0.0013563740327625995</v>
       </c>
       <c r="B76">
         <v>353418</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.005285756234288354</v>
+        <v>0.003946420655361559</v>
       </c>
       <c r="B77">
         <v>353418</v>
@@ -22618,7 +22618,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.01153039358075821</v>
+        <v>0.008069986585162215</v>
       </c>
       <c r="B78">
         <v>353418</v>
@@ -22629,7 +22629,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.0024775555407272757</v>
+        <v>0.0041612629091790565</v>
       </c>
       <c r="B79">
         <v>353418</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.004480059262098375</v>
+        <v>0.015503830417332153</v>
       </c>
       <c r="B80">
         <v>353418</v>
@@ -22651,7 +22651,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.005039020394180837</v>
+        <v>0.002258504387551735</v>
       </c>
       <c r="B81">
         <v>353418</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.008064283389260976</v>
+        <v>0.002497108686991642</v>
       </c>
       <c r="B82">
         <v>353418</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.005404747670390878</v>
+        <v>0.02230336653654308</v>
       </c>
       <c r="B83">
         <v>353418</v>
@@ -22684,7 +22684,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.0019181643274375553</v>
+        <v>0.005712654738428839</v>
       </c>
       <c r="B84">
         <v>353418</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.014691591320297638</v>
+        <v>0.0054463608632689875</v>
       </c>
       <c r="B85">
         <v>353418</v>
@@ -22706,7 +22706,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.007684669711676435</v>
+        <v>0.003153631349870846</v>
       </c>
       <c r="B86">
         <v>353418</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.001703579828405414</v>
+        <v>0.002841920491810245</v>
       </c>
       <c r="B87">
         <v>353418</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.010203903117710562</v>
+        <v>0.00324743465416991</v>
       </c>
       <c r="B88">
         <v>353418</v>
@@ -22739,7 +22739,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.05187492833409311</v>
+        <v>0.003063743083938644</v>
       </c>
       <c r="B89">
         <v>353418</v>
@@ -22750,7 +22750,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.00418782765361769</v>
+        <v>0.005859188971583713</v>
       </c>
       <c r="B90">
         <v>353418</v>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.004130681903069727</v>
+        <v>0.0058523830411096565</v>
       </c>
       <c r="B91">
         <v>353418</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.01182094390370047</v>
+        <v>0.0058431814278987835</v>
       </c>
       <c r="B92">
         <v>353418</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.005491007154646885</v>
+        <v>0.013325227707172815</v>
       </c>
       <c r="B93">
         <v>353418</v>
@@ -22794,7 +22794,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.0012127756842494311</v>
+        <v>0.0015811096887283643</v>
       </c>
       <c r="B94">
         <v>353418</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.01760673544850266</v>
+        <v>0.002305199666629146</v>
       </c>
       <c r="B95">
         <v>353418</v>
@@ -22816,7 +22816,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.0041845119259163455</v>
+        <v>0.008797282344029857</v>
       </c>
       <c r="B96">
         <v>353418</v>
@@ -22827,7 +22827,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.007780995686108358</v>
+        <v>0.0036209825464957</v>
       </c>
       <c r="B97">
         <v>353418</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.02012662950582629</v>
+        <v>0.013516759956949908</v>
       </c>
       <c r="B98">
         <v>353418</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.0038692674968729495</v>
+        <v>0.0019785844397716395</v>
       </c>
       <c r="B99">
         <v>353418</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.012962259728787355</v>
+        <v>0.0018380788687503875</v>
       </c>
       <c r="B100">
         <v>353418</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.0019272580249334505</v>
+        <v>0.005663948387115731</v>
       </c>
       <c r="B101">
         <v>353418</v>
